--- a/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E05CF7E-3B61-4894-A6AB-844FAE6136BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92630E6-782C-47F1-AEC3-62A5C9339832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9552" yWindow="5052" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
   </bookViews>
   <sheets>
     <sheet name="10 trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>pt(s)</t>
+  </si>
+  <si>
+    <t>XGBoostGPU-1</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FE2DD4-240D-4401-AB6B-DDA24FF001C0}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,11 +601,11 @@
         <v>4464.9691581726001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
         <v>905.88140487670898</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
         <v>0.90588140487670898</v>
       </c>
     </row>
@@ -2294,36 +2297,36 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>820.01996040344204</v>
+        <v>842.52333641052201</v>
       </c>
       <c r="F46">
-        <v>915.88377952575604</v>
+        <v>201.56288146972599</v>
       </c>
       <c r="G46">
-        <v>561.40255928039505</v>
+        <v>4647.86720275878</v>
       </c>
       <c r="H46">
-        <v>29.5703411102294</v>
+        <v>31.197547912597599</v>
       </c>
       <c r="I46">
-        <v>3870.1643943786598</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>4461.1876010894703</v>
+        <v>4681.0252666473298</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>1410.9928607940665</v>
+        <v>5521.5880870819001</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1.4109928607940665</v>
+        <v>5.5215880870819003</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2334,36 +2337,36 @@
         <v>1000</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>820.51730155944801</v>
+        <v>846.393823623657</v>
       </c>
       <c r="F47">
-        <v>555.07731437683105</v>
+        <v>128.27229499816801</v>
       </c>
       <c r="G47">
-        <v>62.566757202148402</v>
+        <v>1654.40464019775</v>
       </c>
       <c r="H47">
-        <v>28.3169746398925</v>
+        <v>30.910015106201101</v>
       </c>
       <c r="I47">
-        <v>3849.9491214752102</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>3940.87696075439</v>
+        <v>1687.2420310974101</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>911.40103340148892</v>
+        <v>2531.7084789276082</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>0.91140103340148892</v>
+        <v>2.5317084789276083</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2374,36 +2377,36 @@
         <v>10000</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <v>821.09761238098099</v>
+        <v>840.39831161499001</v>
       </c>
       <c r="F48">
-        <v>553.40433120727505</v>
+        <v>133.29625129699701</v>
       </c>
       <c r="G48">
-        <v>15.3710842132568</v>
+        <v>1581.2110900878899</v>
       </c>
       <c r="H48">
-        <v>29.115200042724599</v>
+        <v>29.368877410888601</v>
       </c>
       <c r="I48">
-        <v>3854.5887470245302</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>3899.1262912750199</v>
+        <v>1612.5881671905499</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>865.58389663696244</v>
+        <v>2450.9782791137686</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>0.86558389663696245</v>
+        <v>2.4509782791137686</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2414,36 +2417,36 @@
         <v>56962</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>821.59066200256302</v>
+        <v>835.99686622619595</v>
       </c>
       <c r="F49">
-        <v>553.54619026184002</v>
+        <v>191.15066528320301</v>
       </c>
       <c r="G49">
-        <v>7.4763298034667898</v>
+        <v>1585.5064392089801</v>
       </c>
       <c r="H49">
-        <v>28.167009353637599</v>
+        <v>28.297662734985298</v>
       </c>
       <c r="I49">
-        <v>3841.3302898406901</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>3877.02417373657</v>
+        <v>1615.7753467559801</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>857.2340011596674</v>
+        <v>2449.8009681701615</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>0.85723400115966741</v>
+        <v>2.4498009681701616</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2457,33 +2460,33 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>823.18472862243596</v>
+        <v>820.01996040344204</v>
       </c>
       <c r="F50">
-        <v>556.28228187561001</v>
+        <v>915.88377952575604</v>
       </c>
       <c r="G50">
-        <v>1511.1911296844401</v>
+        <v>561.40255928039505</v>
       </c>
       <c r="H50">
-        <v>28.841018676757798</v>
+        <v>29.5703411102294</v>
       </c>
       <c r="I50">
-        <v>3276.8373489379801</v>
+        <v>3870.1643943786598</v>
       </c>
       <c r="J50">
-        <v>4816.9376850128101</v>
+        <v>4461.1876010894703</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2363.2168769836339</v>
+        <v>1410.9928607940665</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>2.3632168769836341</v>
+        <v>1.4109928607940665</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2497,33 +2500,33 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>833.90974998474098</v>
+        <v>820.51730155944801</v>
       </c>
       <c r="F51">
-        <v>559.36908721923805</v>
+        <v>555.07731437683105</v>
       </c>
       <c r="G51">
-        <v>933.257579803466</v>
+        <v>62.566757202148402</v>
       </c>
       <c r="H51">
-        <v>28.554916381835898</v>
+        <v>28.3169746398925</v>
       </c>
       <c r="I51">
-        <v>3256.46877288818</v>
+        <v>3849.9491214752102</v>
       </c>
       <c r="J51">
-        <v>4218.3351516723596</v>
+        <v>3940.87696075439</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1795.722246170043</v>
+        <v>911.40103340148892</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.7957222461700431</v>
+        <v>0.91140103340148892</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2537,33 +2540,33 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>824.72610473632801</v>
+        <v>821.09761238098099</v>
       </c>
       <c r="F52">
-        <v>553.66277694702103</v>
+        <v>553.40433120727505</v>
       </c>
       <c r="G52">
-        <v>1255.0690174102699</v>
+        <v>15.3710842132568</v>
       </c>
       <c r="H52">
-        <v>28.429031372070298</v>
+        <v>29.115200042724599</v>
       </c>
       <c r="I52">
-        <v>3258.8670253753598</v>
+        <v>3854.5887470245302</v>
       </c>
       <c r="J52">
-        <v>4542.4249172210602</v>
+        <v>3899.1262912750199</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2108.2241535186681</v>
+        <v>865.58389663696244</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>2.1082241535186683</v>
+        <v>0.86558389663696245</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2577,33 +2580,33 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>817.42572784423805</v>
+        <v>821.59066200256302</v>
       </c>
       <c r="F53">
-        <v>553.71856689453102</v>
+        <v>553.54619026184002</v>
       </c>
       <c r="G53">
-        <v>883.50725173950195</v>
+        <v>7.4763298034667898</v>
       </c>
       <c r="H53">
-        <v>30.739784240722599</v>
+        <v>28.167009353637599</v>
       </c>
       <c r="I53">
-        <v>3288.3796691894499</v>
+        <v>3841.3302898406901</v>
       </c>
       <c r="J53">
-        <v>4202.6913166046097</v>
+        <v>3877.02417373657</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1731.6727638244627</v>
+        <v>857.2340011596674</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.7316727638244627</v>
+        <v>0.85723400115966741</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2617,33 +2620,33 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>819.69571113586403</v>
+        <v>823.18472862243596</v>
       </c>
       <c r="F54">
-        <v>552.071094512939</v>
+        <v>556.28228187561001</v>
       </c>
       <c r="G54">
-        <v>81.9571018218994</v>
+        <v>1511.1911296844401</v>
       </c>
       <c r="H54">
-        <v>35.359144210815401</v>
+        <v>28.841018676757798</v>
       </c>
       <c r="I54">
-        <v>1404.76942062377</v>
+        <v>3276.8373489379801</v>
       </c>
       <c r="J54">
-        <v>1522.14980125427</v>
+        <v>4816.9376850128101</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>937.01195716857887</v>
+        <v>2363.2168769836339</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>0.93701195716857888</v>
+        <v>2.3632168769836341</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2657,33 +2660,33 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>821.14982604980401</v>
+        <v>833.90974998474098</v>
       </c>
       <c r="F55">
-        <v>554.59165573120094</v>
+        <v>559.36908721923805</v>
       </c>
       <c r="G55">
-        <v>38.4368896484375</v>
+        <v>933.257579803466</v>
       </c>
       <c r="H55">
-        <v>41.838645935058501</v>
+        <v>28.554916381835898</v>
       </c>
       <c r="I55">
-        <v>1408.1003665924</v>
+        <v>3256.46877288818</v>
       </c>
       <c r="J55">
-        <v>1488.43812942504</v>
+        <v>4218.3351516723596</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>901.42536163329999</v>
+        <v>1795.722246170043</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>0.9014253616333</v>
+        <v>1.7957222461700431</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2697,33 +2700,33 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>827.55374908447197</v>
+        <v>824.72610473632801</v>
       </c>
       <c r="F56">
-        <v>560.882091522216</v>
+        <v>553.66277694702103</v>
       </c>
       <c r="G56">
-        <v>30.1916599273681</v>
+        <v>1255.0690174102699</v>
       </c>
       <c r="H56">
-        <v>43.239593505859297</v>
+        <v>28.429031372070298</v>
       </c>
       <c r="I56">
-        <v>1411.5483760833699</v>
+        <v>3258.8670253753598</v>
       </c>
       <c r="J56">
-        <v>1485.0299358367899</v>
+        <v>4542.4249172210602</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>900.98500251769929</v>
+        <v>2108.2241535186681</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>0.90098500251769931</v>
+        <v>2.1082241535186683</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2737,33 +2740,33 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>818.36462020874001</v>
+        <v>817.42572784423805</v>
       </c>
       <c r="F57">
-        <v>554.14104461669899</v>
+        <v>553.71856689453102</v>
       </c>
       <c r="G57">
-        <v>36.960840225219698</v>
+        <v>883.50725173950195</v>
       </c>
       <c r="H57">
-        <v>34.142732620239201</v>
+        <v>30.739784240722599</v>
       </c>
       <c r="I57">
-        <v>1411.2777709960901</v>
+        <v>3288.3796691894499</v>
       </c>
       <c r="J57">
-        <v>1482.4352264404199</v>
+        <v>4202.6913166046097</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>889.46819305419899</v>
+        <v>1731.6727638244627</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>0.889468193054199</v>
+        <v>1.7316727638244627</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2777,33 +2780,33 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>822.50618934631302</v>
+        <v>819.69571113586403</v>
       </c>
       <c r="F58">
-        <v>553.90882492065396</v>
+        <v>552.071094512939</v>
       </c>
       <c r="G58">
-        <v>163.726806640625</v>
+        <v>81.9571018218994</v>
       </c>
       <c r="H58">
-        <v>29.078722000121999</v>
+        <v>35.359144210815401</v>
       </c>
       <c r="I58">
-        <v>11409.953355789101</v>
+        <v>1404.76942062377</v>
       </c>
       <c r="J58">
-        <v>11602.8251647949</v>
+        <v>1522.14980125427</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1015.31171798706</v>
+        <v>937.01195716857887</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>1.0153117179870601</v>
+        <v>0.93701195716857888</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2817,33 +2820,33 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>826.50184631347599</v>
+        <v>821.14982604980401</v>
       </c>
       <c r="F59">
-        <v>584.56182479858398</v>
+        <v>554.59165573120094</v>
       </c>
       <c r="G59">
-        <v>24.516344070434499</v>
+        <v>38.4368896484375</v>
       </c>
       <c r="H59">
-        <v>28.6831855773925</v>
+        <v>41.838645935058501</v>
       </c>
       <c r="I59">
-        <v>28216.2029743194</v>
+        <v>1408.1003665924</v>
       </c>
       <c r="J59">
-        <v>28269.464492797801</v>
+        <v>1488.43812942504</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>879.70137596130292</v>
+        <v>901.42536163329999</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>0.87970137596130293</v>
+        <v>0.9014253616333</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2857,33 +2860,33 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>820.59669494628895</v>
+        <v>827.55374908447197</v>
       </c>
       <c r="F60">
-        <v>563.23385238647404</v>
+        <v>560.882091522216</v>
       </c>
       <c r="G60">
-        <v>10.735750198364199</v>
+        <v>30.1916599273681</v>
       </c>
       <c r="H60">
-        <v>29.021978378295898</v>
+        <v>43.239593505859297</v>
       </c>
       <c r="I60">
-        <v>28211.974620819001</v>
+        <v>1411.5483760833699</v>
       </c>
       <c r="J60">
-        <v>28251.792430877598</v>
+        <v>1485.0299358367899</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>860.35442352294899</v>
+        <v>900.98500251769929</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.860354423522949</v>
+        <v>0.90098500251769931</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2897,33 +2900,33 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61">
-        <v>820.02449035644497</v>
+        <v>818.36462020874001</v>
       </c>
       <c r="F61">
-        <v>555.84597587585404</v>
+        <v>554.14104461669899</v>
       </c>
       <c r="G61">
-        <v>7.2824954986572203</v>
+        <v>36.960840225219698</v>
       </c>
       <c r="H61">
-        <v>28.510332107543899</v>
+        <v>34.142732620239201</v>
       </c>
       <c r="I61">
-        <v>13812.9959106445</v>
+        <v>1411.2777709960901</v>
       </c>
       <c r="J61">
-        <v>13848.8445281982</v>
+        <v>1482.4352264404199</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>855.81731796264614</v>
+        <v>889.46819305419899</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.85581731796264615</v>
+        <v>0.889468193054199</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2937,33 +2940,33 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>822.42012023925702</v>
+        <v>822.50618934631302</v>
       </c>
       <c r="F62">
-        <v>555.75418472290005</v>
+        <v>553.90882492065396</v>
       </c>
       <c r="G62">
-        <v>389.00208473205498</v>
+        <v>163.726806640625</v>
       </c>
       <c r="H62">
-        <v>13.69309425354</v>
+        <v>29.078722000121999</v>
       </c>
       <c r="I62">
-        <v>2422.1782684326099</v>
+        <v>11409.953355789101</v>
       </c>
       <c r="J62">
-        <v>2824.93042945861</v>
+        <v>11602.8251647949</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1225.1152992248522</v>
+        <v>1015.31171798706</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.2251152992248522</v>
+        <v>1.0153117179870601</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2977,33 +2980,33 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>824.42259788513104</v>
+        <v>826.50184631347599</v>
       </c>
       <c r="F63">
-        <v>556.27179145812897</v>
+        <v>584.56182479858398</v>
       </c>
       <c r="G63">
-        <v>144.896984100341</v>
+        <v>24.516344070434499</v>
       </c>
       <c r="H63">
-        <v>13.669252395629799</v>
+        <v>28.6831855773925</v>
       </c>
       <c r="I63">
-        <v>2417.5753593444801</v>
+        <v>28216.2029743194</v>
       </c>
       <c r="J63">
-        <v>2576.19309425354</v>
+        <v>28269.464492797801</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>982.98883438110181</v>
+        <v>879.70137596130292</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.98298883438110185</v>
+        <v>0.87970137596130293</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3017,33 +3020,33 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>824.72014427185002</v>
+        <v>820.59669494628895</v>
       </c>
       <c r="F64">
-        <v>553.26223373412995</v>
+        <v>563.23385238647404</v>
       </c>
       <c r="G64">
-        <v>117.918252944946</v>
+        <v>10.735750198364199</v>
       </c>
       <c r="H64">
-        <v>14.091014862060501</v>
+        <v>29.021978378295898</v>
       </c>
       <c r="I64">
-        <v>2424.65257644653</v>
+        <v>28211.974620819001</v>
       </c>
       <c r="J64">
-        <v>2556.7169189453102</v>
+        <v>28251.792430877598</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>956.72941207885651</v>
+        <v>860.35442352294899</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.95672941207885653</v>
+        <v>0.860354423522949</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3057,37 +3060,197 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>820.02449035644497</v>
+      </c>
+      <c r="F65">
+        <v>555.84597587585404</v>
+      </c>
+      <c r="G65">
+        <v>7.2824954986572203</v>
+      </c>
+      <c r="H65">
+        <v>28.510332107543899</v>
+      </c>
+      <c r="I65">
+        <v>13812.9959106445</v>
+      </c>
+      <c r="J65">
+        <v>13848.8445281982</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>855.81731796264614</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0.85581731796264615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E66">
+        <v>822.42012023925702</v>
+      </c>
+      <c r="F66">
+        <v>555.75418472290005</v>
+      </c>
+      <c r="G66">
+        <v>389.00208473205498</v>
+      </c>
+      <c r="H66">
+        <v>13.69309425354</v>
+      </c>
+      <c r="I66">
+        <v>2422.1782684326099</v>
+      </c>
+      <c r="J66">
+        <v>2824.93042945861</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>1225.1152992248522</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>1.2251152992248522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>824.42259788513104</v>
+      </c>
+      <c r="F67">
+        <v>556.27179145812897</v>
+      </c>
+      <c r="G67">
+        <v>144.896984100341</v>
+      </c>
+      <c r="H67">
+        <v>13.669252395629799</v>
+      </c>
+      <c r="I67">
+        <v>2417.5753593444801</v>
+      </c>
+      <c r="J67">
+        <v>2576.19309425354</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>982.98883438110181</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>0.98298883438110185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10000</v>
+      </c>
+      <c r="B68">
+        <v>10000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>824.72014427185002</v>
+      </c>
+      <c r="F68">
+        <v>553.26223373412995</v>
+      </c>
+      <c r="G68">
+        <v>117.918252944946</v>
+      </c>
+      <c r="H68">
+        <v>14.091014862060501</v>
+      </c>
+      <c r="I68">
+        <v>2424.65257644653</v>
+      </c>
+      <c r="J68">
+        <v>2556.7169189453102</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>956.72941207885651</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>0.95672941207885653</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>56962</v>
+      </c>
+      <c r="B69">
+        <v>56962</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
         <v>821.73967361450195</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>580.89232444763104</v>
       </c>
-      <c r="G65">
+      <c r="G69">
         <v>120.913982391357</v>
       </c>
-      <c r="H65">
+      <c r="H69">
         <v>96.615076065063406</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>2437.8981590270901</v>
       </c>
-      <c r="J65">
+      <c r="J69">
         <v>2655.49826622009</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <f t="shared" si="0"/>
         <v>1039.2687320709224</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <f t="shared" si="1"/>
         <v>1.0392687320709224</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L65">
+  <conditionalFormatting sqref="L2:L69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3099,7 +3262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3117,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17AADB-7A1D-4563-8585-13F012E6BC7D}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,11 +3401,11 @@
         <v>5130.0625801086398</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
         <v>991.61076545715287</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
         <v>0.99161076545715288</v>
       </c>
     </row>
@@ -4934,36 +5097,36 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>845.27063369750897</v>
+        <v>831.92968368530205</v>
       </c>
       <c r="F46">
-        <v>621.76656723022404</v>
+        <v>207.93533325195301</v>
       </c>
       <c r="G46">
-        <v>543.95318031311001</v>
+        <v>6804.6398162841797</v>
       </c>
       <c r="H46">
-        <v>28.480768203735298</v>
+        <v>32.1273803710937</v>
       </c>
       <c r="I46">
-        <v>4875.2601146697998</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>5447.7601051330503</v>
+        <v>6838.7715816497803</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>1417.7045822143543</v>
+        <v>7668.6968803405753</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1.4177045822143544</v>
+        <v>7.6686968803405753</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -4974,36 +5137,36 @@
         <v>1000</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>844.01941299438397</v>
+        <v>835.62397956848099</v>
       </c>
       <c r="F47">
-        <v>581.12144470214798</v>
+        <v>203.92680168151799</v>
       </c>
       <c r="G47">
-        <v>137.667417526245</v>
+        <v>1924.6492385864201</v>
       </c>
       <c r="H47">
-        <v>30.4603576660156</v>
+        <v>27.991771697998001</v>
       </c>
       <c r="I47">
-        <v>4809.9541664123499</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4978.1508445739701</v>
+        <v>1954.60486412048</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>1012.1471881866446</v>
+        <v>2788.2649898528989</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>1.0121471881866446</v>
+        <v>2.7882649898528991</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5014,36 +5177,36 @@
         <v>10000</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <v>867.49839782714798</v>
+        <v>835.865259170532</v>
       </c>
       <c r="F48">
-        <v>596.507310867309</v>
+        <v>182.71994590759201</v>
       </c>
       <c r="G48">
-        <v>112.833738327026</v>
+        <v>1625.1089572906401</v>
       </c>
       <c r="H48">
-        <v>28.220891952514599</v>
+        <v>28.176069259643501</v>
       </c>
       <c r="I48">
-        <v>4838.9172554016104</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>4980.0519943237296</v>
+        <v>1655.2801132202101</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>1008.5530281066887</v>
+        <v>2489.1502857208156</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>1.0085530281066888</v>
+        <v>2.4891502857208159</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5054,36 +5217,36 @@
         <v>56962</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>834.88988876342705</v>
+        <v>835.17336845397904</v>
       </c>
       <c r="F49">
-        <v>591.63236618041901</v>
+        <v>193.60661506652801</v>
       </c>
       <c r="G49">
-        <v>106.802463531494</v>
+        <v>1593.1940078735299</v>
       </c>
       <c r="H49">
-        <v>28.002738952636701</v>
+        <v>28.589248657226499</v>
       </c>
       <c r="I49">
-        <v>4744.8675632476798</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4879.7349929809498</v>
+        <v>1623.74448776245</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>969.6950912475578</v>
+        <v>2456.9566249847358</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>0.96969509124755782</v>
+        <v>2.4569566249847359</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -5097,33 +5260,33 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>858.21151733398403</v>
+        <v>845.27063369750897</v>
       </c>
       <c r="F50">
-        <v>565.62995910644497</v>
+        <v>621.76656723022404</v>
       </c>
       <c r="G50">
-        <v>1229.04396057128</v>
+        <v>543.95318031311001</v>
       </c>
       <c r="H50">
-        <v>29.258012771606399</v>
+        <v>28.480768203735298</v>
       </c>
       <c r="I50">
-        <v>4224.0984439849799</v>
+        <v>4875.2601146697998</v>
       </c>
       <c r="J50">
-        <v>5482.4693202972403</v>
+        <v>5447.7601051330503</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2116.5134906768703</v>
+        <v>1417.7045822143543</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>2.1165134906768706</v>
+        <v>1.4177045822143544</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -5137,33 +5300,33 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>854.11548614501896</v>
+        <v>844.01941299438397</v>
       </c>
       <c r="F51">
-        <v>570.72567939758301</v>
+        <v>581.12144470214798</v>
       </c>
       <c r="G51">
-        <v>937.926769256591</v>
+        <v>137.667417526245</v>
       </c>
       <c r="H51">
-        <v>29.9746990203857</v>
+        <v>30.4603576660156</v>
       </c>
       <c r="I51">
-        <v>4124.5656013488697</v>
+        <v>4809.9541664123499</v>
       </c>
       <c r="J51">
-        <v>5092.5245285034098</v>
+        <v>4978.1508445739701</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1822.0169544219957</v>
+        <v>1012.1471881866446</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.8220169544219957</v>
+        <v>1.0121471881866446</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -5177,33 +5340,33 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>821.04468345641999</v>
+        <v>867.49839782714798</v>
       </c>
       <c r="F52">
-        <v>567.39783287048294</v>
+        <v>596.507310867309</v>
       </c>
       <c r="G52">
-        <v>1242.5096035003601</v>
+        <v>112.833738327026</v>
       </c>
       <c r="H52">
-        <v>31.074285507202099</v>
+        <v>28.220891952514599</v>
       </c>
       <c r="I52">
-        <v>4205.6171894073404</v>
+        <v>4838.9172554016104</v>
       </c>
       <c r="J52">
-        <v>5479.2661666870099</v>
+        <v>4980.0519943237296</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2094.628572463982</v>
+        <v>1008.5530281066887</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>2.0946285724639822</v>
+        <v>1.0085530281066888</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5217,33 +5380,33 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>821.247339248657</v>
+        <v>834.88988876342705</v>
       </c>
       <c r="F53">
-        <v>566.81895256042401</v>
+        <v>591.63236618041901</v>
       </c>
       <c r="G53">
-        <v>854.086875915527</v>
+        <v>106.802463531494</v>
       </c>
       <c r="H53">
-        <v>31.014442443847599</v>
+        <v>28.002738952636701</v>
       </c>
       <c r="I53">
-        <v>4573.5495090484601</v>
+        <v>4744.8675632476798</v>
       </c>
       <c r="J53">
-        <v>5458.7180614471399</v>
+        <v>4879.7349929809498</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1706.3486576080318</v>
+        <v>969.6950912475578</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.7063486576080318</v>
+        <v>0.96969509124755782</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -5257,33 +5420,33 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>826.85637474060002</v>
+        <v>858.21151733398403</v>
       </c>
       <c r="F54">
-        <v>565.26899337768498</v>
+        <v>565.62995910644497</v>
       </c>
       <c r="G54">
-        <v>428.18546295165999</v>
+        <v>1229.04396057128</v>
       </c>
       <c r="H54">
-        <v>28.066158294677699</v>
+        <v>29.258012771606399</v>
       </c>
       <c r="I54">
-        <v>1427.00743675231</v>
+        <v>4224.0984439849799</v>
       </c>
       <c r="J54">
-        <v>1883.32176208496</v>
+        <v>5482.4693202972403</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>1283.1079959869378</v>
+        <v>2116.5134906768703</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>1.2831079959869378</v>
+        <v>2.1165134906768706</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5297,33 +5460,33 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>824.51224327087402</v>
+        <v>854.11548614501896</v>
       </c>
       <c r="F55">
-        <v>568.56203079223599</v>
+        <v>570.72567939758301</v>
       </c>
       <c r="G55">
-        <v>376.76715850829999</v>
+        <v>937.926769256591</v>
       </c>
       <c r="H55">
-        <v>40.971755981445298</v>
+        <v>29.9746990203857</v>
       </c>
       <c r="I55">
-        <v>1489.1979694366401</v>
+        <v>4124.5656013488697</v>
       </c>
       <c r="J55">
-        <v>1906.9862365722599</v>
+        <v>5092.5245285034098</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1242.2511577606192</v>
+        <v>1822.0169544219957</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.2422511577606192</v>
+        <v>1.8220169544219957</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5337,33 +5500,33 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>820.675611495971</v>
+        <v>821.04468345641999</v>
       </c>
       <c r="F56">
-        <v>568.36271286010697</v>
+        <v>567.39783287048294</v>
       </c>
       <c r="G56">
-        <v>351.21655464172301</v>
+        <v>1242.5096035003601</v>
       </c>
       <c r="H56">
-        <v>40.032625198364201</v>
+        <v>31.074285507202099</v>
       </c>
       <c r="I56">
-        <v>1491.8329715728701</v>
+        <v>4205.6171894073404</v>
       </c>
       <c r="J56">
-        <v>1883.1341266632</v>
+        <v>5479.2661666870099</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>1211.9247913360582</v>
+        <v>2094.628572463982</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>1.2119247913360582</v>
+        <v>2.0946285724639822</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -5377,33 +5540,33 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>827.913999557495</v>
+        <v>821.247339248657</v>
       </c>
       <c r="F57">
-        <v>568.63331794738701</v>
+        <v>566.81895256042401</v>
       </c>
       <c r="G57">
-        <v>350.037813186645</v>
+        <v>854.086875915527</v>
       </c>
       <c r="H57">
-        <v>33.792972564697202</v>
+        <v>31.014442443847599</v>
       </c>
       <c r="I57">
-        <v>1489.1839027404701</v>
+        <v>4573.5495090484601</v>
       </c>
       <c r="J57">
-        <v>1873.06785583496</v>
+        <v>5458.7180614471399</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1211.7447853088372</v>
+        <v>1706.3486576080318</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.2117447853088372</v>
+        <v>1.7063486576080318</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -5417,33 +5580,33 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>822.99160957336403</v>
+        <v>826.85637474060002</v>
       </c>
       <c r="F58">
-        <v>568.16077232360794</v>
+        <v>565.26899337768498</v>
       </c>
       <c r="G58">
-        <v>190.75322151184</v>
+        <v>428.18546295165999</v>
       </c>
       <c r="H58">
-        <v>29.567956924438398</v>
+        <v>28.066158294677699</v>
       </c>
       <c r="I58">
-        <v>30140.564441680901</v>
+        <v>1427.00743675231</v>
       </c>
       <c r="J58">
-        <v>30360.951423645001</v>
+        <v>1883.32176208496</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1043.3127880096424</v>
+        <v>1283.1079959869378</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>1.0433127880096424</v>
+        <v>1.2831079959869378</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5457,33 +5620,33 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>825.255870819091</v>
+        <v>824.51224327087402</v>
       </c>
       <c r="F59">
-        <v>568.70484352111805</v>
+        <v>568.56203079223599</v>
       </c>
       <c r="G59">
-        <v>52.939653396606403</v>
+        <v>376.76715850829999</v>
       </c>
       <c r="H59">
-        <v>29.158115386962798</v>
+        <v>40.971755981445298</v>
       </c>
       <c r="I59">
-        <v>27438.269853591901</v>
+        <v>1489.1979694366401</v>
       </c>
       <c r="J59">
-        <v>27520.4362869262</v>
+        <v>1906.9862365722599</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>907.35363960266022</v>
+        <v>1242.2511577606192</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>0.90735363960266024</v>
+        <v>1.2422511577606192</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5497,33 +5660,33 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>823.80914688110295</v>
+        <v>820.675611495971</v>
       </c>
       <c r="F60">
-        <v>579.14710044860794</v>
+        <v>568.36271286010697</v>
       </c>
       <c r="G60">
-        <v>39.319992065429602</v>
+        <v>351.21655464172301</v>
       </c>
       <c r="H60">
-        <v>28.660774230956999</v>
+        <v>40.032625198364201</v>
       </c>
       <c r="I60">
-        <v>30836.8406295776</v>
+        <v>1491.8329715728701</v>
       </c>
       <c r="J60">
-        <v>30904.8902988433</v>
+        <v>1883.1341266632</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>891.78991317748955</v>
+        <v>1211.9247913360582</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.89178991317748957</v>
+        <v>1.2119247913360582</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5537,33 +5700,33 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61">
-        <v>823.44865798950195</v>
+        <v>827.913999557495</v>
       </c>
       <c r="F61">
-        <v>568.15123558044399</v>
+        <v>568.63331794738701</v>
       </c>
       <c r="G61">
-        <v>30.685186386108398</v>
+        <v>350.037813186645</v>
       </c>
       <c r="H61">
-        <v>28.438329696655199</v>
+        <v>33.792972564697202</v>
       </c>
       <c r="I61">
-        <v>30043.890953063899</v>
+        <v>1489.1839027404701</v>
       </c>
       <c r="J61">
-        <v>30103.076934814399</v>
+        <v>1873.06785583496</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>882.57217407226551</v>
+        <v>1211.7447853088372</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.88257217407226551</v>
+        <v>1.2117447853088372</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -5577,33 +5740,33 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>823.04430007934502</v>
+        <v>822.99160957336403</v>
       </c>
       <c r="F62">
-        <v>569.70357894897404</v>
+        <v>568.16077232360794</v>
       </c>
       <c r="G62">
-        <v>406.45980834960898</v>
+        <v>190.75322151184</v>
       </c>
       <c r="H62">
-        <v>13.6249065399169</v>
+        <v>29.567956924438398</v>
       </c>
       <c r="I62">
-        <v>2474.2050170898401</v>
+        <v>30140.564441680901</v>
       </c>
       <c r="J62">
-        <v>2894.3502902984601</v>
+        <v>30360.951423645001</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1243.1290149688709</v>
+        <v>1043.3127880096424</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.243129014968871</v>
+        <v>1.0433127880096424</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -5617,33 +5780,33 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>829.34832572937</v>
+        <v>825.255870819091</v>
       </c>
       <c r="F63">
-        <v>571.63977622985794</v>
+        <v>568.70484352111805</v>
       </c>
       <c r="G63">
-        <v>155.420780181884</v>
+        <v>52.939653396606403</v>
       </c>
       <c r="H63">
-        <v>13.709545135498001</v>
+        <v>29.158115386962798</v>
       </c>
       <c r="I63">
-        <v>2471.8744754791201</v>
+        <v>27438.269853591901</v>
       </c>
       <c r="J63">
-        <v>2641.0562992095902</v>
+        <v>27520.4362869262</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>998.47865104675202</v>
+        <v>907.35363960266022</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.99847865104675204</v>
+        <v>0.90735363960266024</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -5657,33 +5820,33 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>836.22741699218705</v>
+        <v>823.80914688110295</v>
       </c>
       <c r="F64">
-        <v>596.61865234375</v>
+        <v>579.14710044860794</v>
       </c>
       <c r="G64">
-        <v>133.23688507080001</v>
+        <v>39.319992065429602</v>
       </c>
       <c r="H64">
-        <v>13.752698898315399</v>
+        <v>28.660774230956999</v>
       </c>
       <c r="I64">
-        <v>2480.3047180175699</v>
+        <v>30836.8406295776</v>
       </c>
       <c r="J64">
-        <v>2627.34937667846</v>
+        <v>30904.8902988433</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>983.21700096130246</v>
+        <v>891.78991317748955</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.98321700096130249</v>
+        <v>0.89178991317748957</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5697,37 +5860,197 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>823.44865798950195</v>
+      </c>
+      <c r="F65">
+        <v>568.15123558044399</v>
+      </c>
+      <c r="G65">
+        <v>30.685186386108398</v>
+      </c>
+      <c r="H65">
+        <v>28.438329696655199</v>
+      </c>
+      <c r="I65">
+        <v>30043.890953063899</v>
+      </c>
+      <c r="J65">
+        <v>30103.076934814399</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>882.57217407226551</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0.88257217407226551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E66">
+        <v>823.04430007934502</v>
+      </c>
+      <c r="F66">
+        <v>569.70357894897404</v>
+      </c>
+      <c r="G66">
+        <v>406.45980834960898</v>
+      </c>
+      <c r="H66">
+        <v>13.6249065399169</v>
+      </c>
+      <c r="I66">
+        <v>2474.2050170898401</v>
+      </c>
+      <c r="J66">
+        <v>2894.3502902984601</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>1243.1290149688709</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>1.243129014968871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>829.34832572937</v>
+      </c>
+      <c r="F67">
+        <v>571.63977622985794</v>
+      </c>
+      <c r="G67">
+        <v>155.420780181884</v>
+      </c>
+      <c r="H67">
+        <v>13.709545135498001</v>
+      </c>
+      <c r="I67">
+        <v>2471.8744754791201</v>
+      </c>
+      <c r="J67">
+        <v>2641.0562992095902</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>998.47865104675202</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>0.99847865104675204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10000</v>
+      </c>
+      <c r="B68">
+        <v>10000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>836.22741699218705</v>
+      </c>
+      <c r="F68">
+        <v>596.61865234375</v>
+      </c>
+      <c r="G68">
+        <v>133.23688507080001</v>
+      </c>
+      <c r="H68">
+        <v>13.752698898315399</v>
+      </c>
+      <c r="I68">
+        <v>2480.3047180175699</v>
+      </c>
+      <c r="J68">
+        <v>2627.34937667846</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>983.21700096130246</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>0.98321700096130249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>56962</v>
+      </c>
+      <c r="B69">
+        <v>56962</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
         <v>824.45788383483796</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>566.29538536071698</v>
       </c>
-      <c r="G65">
+      <c r="G69">
         <v>134.832620620727</v>
       </c>
-      <c r="H65">
+      <c r="H69">
         <v>13.753414154052701</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>2465.2714729309</v>
       </c>
-      <c r="J65">
+      <c r="J69">
         <v>2613.9147281646701</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <f t="shared" si="0"/>
         <v>973.04391860961766</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <f t="shared" si="1"/>
         <v>0.9730439186096177</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L65">
+  <conditionalFormatting sqref="L2:L69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5739,7 +6062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5757,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607216-E5DB-4978-9B0F-86A2BC3AF938}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5878,11 +6201,11 @@
         <v>6694.7731971740704</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K65" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
         <v>1252.1662712097159</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L65" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
         <v>1.2521662712097159</v>
       </c>
     </row>
@@ -7574,36 +7897,36 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>828.277587890625</v>
+        <v>850.24189949035599</v>
       </c>
       <c r="F46">
-        <v>613.40594291687</v>
+        <v>221.438884735107</v>
       </c>
       <c r="G46">
-        <v>557.73687362670898</v>
+        <v>10624.8788833618</v>
       </c>
       <c r="H46">
-        <v>30.5447578430175</v>
+        <v>28.282880783081001</v>
       </c>
       <c r="I46">
-        <v>6107.6409816741898</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>6695.9958076476996</v>
+        <v>10655.2150249481</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>1416.5592193603516</v>
+        <v>11503.403663635238</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>1.4165592193603516</v>
+        <v>11.503403663635238</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -7614,36 +7937,36 @@
         <v>1000</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E47">
-        <v>829.62155342102005</v>
+        <v>856.292247772216</v>
       </c>
       <c r="F47">
-        <v>593.63794326782204</v>
+        <v>156.87942504882801</v>
       </c>
       <c r="G47">
-        <v>357.77592658996502</v>
+        <v>2334.3136310577302</v>
       </c>
       <c r="H47">
-        <v>29.892683029174801</v>
+        <v>31.992435455322202</v>
       </c>
       <c r="I47">
-        <v>6115.1413917541504</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>6502.9070377349799</v>
+        <v>2368.2906627655002</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>1217.2901630401598</v>
+        <v>3222.5983142852683</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>1.2172901630401598</v>
+        <v>3.2225983142852686</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -7654,36 +7977,36 @@
         <v>10000</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <v>824.54824447631802</v>
+        <v>857.62882232666004</v>
       </c>
       <c r="F48">
-        <v>589.36047554016102</v>
+        <v>167.36602783203099</v>
       </c>
       <c r="G48">
-        <v>340.82007408141999</v>
+        <v>1711.0726833343499</v>
       </c>
       <c r="H48">
-        <v>28.632164001464801</v>
+        <v>30.2903652191162</v>
       </c>
       <c r="I48">
-        <v>6069.3869590759195</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>6438.92502784729</v>
+        <v>1743.40319633483</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>1194.0004825592027</v>
+        <v>2598.991870880126</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>1.1940004825592028</v>
+        <v>2.5989918708801261</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -7694,36 +8017,36 @@
         <v>56962</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>844.696044921875</v>
+        <v>853.81174087524403</v>
       </c>
       <c r="F49">
-        <v>605.76128959655705</v>
+        <v>135.87045669555599</v>
       </c>
       <c r="G49">
-        <v>332.92198181152298</v>
+        <v>1655.9224128723099</v>
       </c>
       <c r="H49">
-        <v>28.842449188232401</v>
+        <v>31.379938125610298</v>
       </c>
       <c r="I49">
-        <v>6040.4803752899097</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>6402.32372283935</v>
+        <v>1689.35179710388</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>1206.4604759216304</v>
+        <v>2541.1140918731644</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>1.2064604759216304</v>
+        <v>2.5411140918731645</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -7737,33 +8060,33 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50">
-        <v>829.42748069763104</v>
+        <v>828.277587890625</v>
       </c>
       <c r="F50">
-        <v>583.49466323852505</v>
+        <v>613.40594291687</v>
       </c>
       <c r="G50">
-        <v>1218.31727027893</v>
+        <v>557.73687362670898</v>
       </c>
       <c r="H50">
-        <v>30.759334564208899</v>
+        <v>30.5447578430175</v>
       </c>
       <c r="I50">
-        <v>5438.6096000671296</v>
+        <v>6107.6409816741898</v>
       </c>
       <c r="J50">
-        <v>6687.7508163452103</v>
+        <v>6695.9958076476996</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2078.5040855407701</v>
+        <v>1416.5592193603516</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>2.0785040855407702</v>
+        <v>1.4165592193603516</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -7777,33 +8100,33 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51">
-        <v>835.86192131042401</v>
+        <v>829.62155342102005</v>
       </c>
       <c r="F51">
-        <v>584.98764038085903</v>
+        <v>593.63794326782204</v>
       </c>
       <c r="G51">
-        <v>1080.7840824127099</v>
+        <v>357.77592658996502</v>
       </c>
       <c r="H51">
-        <v>28.868198394775298</v>
+        <v>29.892683029174801</v>
       </c>
       <c r="I51">
-        <v>5541.6295528411802</v>
+        <v>6115.1413917541504</v>
       </c>
       <c r="J51">
-        <v>6651.3388156890796</v>
+        <v>6502.9070377349799</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1945.5142021179095</v>
+        <v>1217.2901630401598</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.9455142021179095</v>
+        <v>1.2172901630401598</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -7817,33 +8140,33 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>848.60730171203602</v>
+        <v>824.54824447631802</v>
       </c>
       <c r="F52">
-        <v>583.19950103759697</v>
+        <v>589.36047554016102</v>
       </c>
       <c r="G52">
-        <v>1338.8798236846901</v>
+        <v>340.82007408141999</v>
       </c>
       <c r="H52">
-        <v>28.9692878723144</v>
+        <v>28.632164001464801</v>
       </c>
       <c r="I52">
-        <v>5654.7186374664298</v>
+        <v>6069.3869590759195</v>
       </c>
       <c r="J52">
-        <v>7022.6364135742097</v>
+        <v>6438.92502784729</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2216.4564132690407</v>
+        <v>1194.0004825592027</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>2.2164564132690407</v>
+        <v>1.1940004825592028</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -7857,33 +8180,33 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>827.55661010742097</v>
+        <v>844.696044921875</v>
       </c>
       <c r="F53">
-        <v>587.68081665039006</v>
+        <v>605.76128959655705</v>
       </c>
       <c r="G53">
-        <v>862.13541030883698</v>
+        <v>332.92198181152298</v>
       </c>
       <c r="H53">
-        <v>28.696537017822202</v>
+        <v>28.842449188232401</v>
       </c>
       <c r="I53">
-        <v>7038.4285449981599</v>
+        <v>6040.4803752899097</v>
       </c>
       <c r="J53">
-        <v>7929.3270111083903</v>
+        <v>6402.32372283935</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1718.3885574340802</v>
+        <v>1206.4604759216304</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.7183885574340803</v>
+        <v>1.2064604759216304</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -7897,33 +8220,33 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>826.72524452209404</v>
+        <v>829.42748069763104</v>
       </c>
       <c r="F54">
-        <v>587.57376670837402</v>
+        <v>583.49466323852505</v>
       </c>
       <c r="G54">
-        <v>1332.02195167541</v>
+        <v>1218.31727027893</v>
       </c>
       <c r="H54">
-        <v>41.705131530761697</v>
+        <v>30.759334564208899</v>
       </c>
       <c r="I54">
-        <v>1511.0247135162299</v>
+        <v>5438.6096000671296</v>
       </c>
       <c r="J54">
-        <v>2884.8271369934</v>
+        <v>6687.7508163452103</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2200.452327728266</v>
+        <v>2078.5040855407701</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.2004523277282662</v>
+        <v>2.0785040855407702</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -7937,33 +8260,33 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55">
-        <v>833.84966850280705</v>
+        <v>835.86192131042401</v>
       </c>
       <c r="F55">
-        <v>589.54358100891102</v>
+        <v>584.98764038085903</v>
       </c>
       <c r="G55">
-        <v>1090.45982360839</v>
+        <v>1080.7840824127099</v>
       </c>
       <c r="H55">
-        <v>41.421413421630803</v>
+        <v>28.868198394775298</v>
       </c>
       <c r="I55">
-        <v>1556.62560462951</v>
+        <v>5541.6295528411802</v>
       </c>
       <c r="J55">
-        <v>2688.56763839721</v>
+        <v>6651.3388156890796</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1965.7309055328278</v>
+        <v>1945.5142021179095</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.9657309055328278</v>
+        <v>1.9455142021179095</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -7977,33 +8300,33 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>828.60326766967705</v>
+        <v>848.60730171203602</v>
       </c>
       <c r="F56">
-        <v>583.25982093811001</v>
+        <v>583.19950103759697</v>
       </c>
       <c r="G56">
-        <v>788.86198997497502</v>
+        <v>1338.8798236846901</v>
       </c>
       <c r="H56">
-        <v>28.3257961273193</v>
+        <v>28.9692878723144</v>
       </c>
       <c r="I56">
-        <v>1561.6023540496799</v>
+        <v>5654.7186374664298</v>
       </c>
       <c r="J56">
-        <v>2378.8440227508499</v>
+        <v>7022.6364135742097</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>1645.7910537719713</v>
+        <v>2216.4564132690407</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>1.6457910537719713</v>
+        <v>2.2164564132690407</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -8017,33 +8340,33 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>832.14282989501896</v>
+        <v>827.55661010742097</v>
       </c>
       <c r="F57">
-        <v>587.53180503845203</v>
+        <v>587.68081665039006</v>
       </c>
       <c r="G57">
-        <v>1008.0554485320999</v>
+        <v>862.13541030883698</v>
       </c>
       <c r="H57">
-        <v>33.866167068481403</v>
+        <v>28.696537017822202</v>
       </c>
       <c r="I57">
-        <v>1551.39660835266</v>
+        <v>7038.4285449981599</v>
       </c>
       <c r="J57">
-        <v>2593.3759212493801</v>
+        <v>7929.3270111083903</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1874.0644454956005</v>
+        <v>1718.3885574340802</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.8740644454956006</v>
+        <v>1.7183885574340803</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -8057,33 +8380,33 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>827.34012603759697</v>
+        <v>826.72524452209404</v>
       </c>
       <c r="F58">
-        <v>592.40341186523403</v>
+        <v>587.57376670837402</v>
       </c>
       <c r="G58">
-        <v>259.78016853332502</v>
+        <v>1332.02195167541</v>
       </c>
       <c r="H58">
-        <v>28.662681579589801</v>
+        <v>41.705131530761697</v>
       </c>
       <c r="I58">
-        <v>19951.380491256699</v>
+        <v>1511.0247135162299</v>
       </c>
       <c r="J58">
-        <v>20239.895820617599</v>
+        <v>2884.8271369934</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1115.7829761505118</v>
+        <v>2200.452327728266</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>1.1157829761505118</v>
+        <v>2.2004523277282662</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -8097,33 +8420,33 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59">
-        <v>847.18441963195801</v>
+        <v>833.84966850280705</v>
       </c>
       <c r="F59">
-        <v>591.72368049621502</v>
+        <v>589.54358100891102</v>
       </c>
       <c r="G59">
-        <v>135.414600372314</v>
+        <v>1090.45982360839</v>
       </c>
       <c r="H59">
-        <v>29.1633605957031</v>
+        <v>41.421413421630803</v>
       </c>
       <c r="I59">
-        <v>30678.300619125301</v>
+        <v>1556.62560462951</v>
       </c>
       <c r="J59">
-        <v>30842.962026596</v>
+        <v>2688.56763839721</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1011.7623805999751</v>
+        <v>1965.7309055328278</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>1.0117623805999751</v>
+        <v>1.9657309055328278</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -8137,33 +8460,33 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>835.31618118286099</v>
+        <v>828.60326766967705</v>
       </c>
       <c r="F60">
-        <v>604.37273979187</v>
+        <v>583.25982093811001</v>
       </c>
       <c r="G60">
-        <v>114.526033401489</v>
+        <v>788.86198997497502</v>
       </c>
       <c r="H60">
-        <v>30.268669128417901</v>
+        <v>28.3257961273193</v>
       </c>
       <c r="I60">
-        <v>45026.1943340301</v>
+        <v>1561.6023540496799</v>
       </c>
       <c r="J60">
-        <v>45171.0658073425</v>
+        <v>2378.8440227508499</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>980.11088371276787</v>
+        <v>1645.7910537719713</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.98011088371276789</v>
+        <v>1.6457910537719713</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -8177,33 +8500,33 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61">
-        <v>825.18029212951603</v>
+        <v>832.14282989501896</v>
       </c>
       <c r="F61">
-        <v>589.32280540466297</v>
+        <v>587.53180503845203</v>
       </c>
       <c r="G61">
-        <v>78.191757202148395</v>
+        <v>1008.0554485320999</v>
       </c>
       <c r="H61">
-        <v>28.961420059204102</v>
+        <v>33.866167068481403</v>
       </c>
       <c r="I61">
-        <v>66193.135976791295</v>
+        <v>1551.39660835266</v>
       </c>
       <c r="J61">
-        <v>66300.364732742295</v>
+        <v>2593.3759212493801</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>932.33346939086857</v>
+        <v>1874.0644454956005</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.93233346939086859</v>
+        <v>1.8740644454956006</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -8217,33 +8540,33 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>830.27625083923294</v>
+        <v>827.34012603759697</v>
       </c>
       <c r="F62">
-        <v>589.72597122192303</v>
+        <v>592.40341186523403</v>
       </c>
       <c r="G62">
-        <v>455.19042015075598</v>
+        <v>259.78016853332502</v>
       </c>
       <c r="H62">
-        <v>13.653993606567299</v>
+        <v>28.662681579589801</v>
       </c>
       <c r="I62">
-        <v>2612.1044158935501</v>
+        <v>19951.380491256699</v>
       </c>
       <c r="J62">
-        <v>3081.0155868530201</v>
+        <v>20239.895820617599</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1299.1206645965563</v>
+        <v>1115.7829761505118</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.2991206645965563</v>
+        <v>1.1157829761505118</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -8257,33 +8580,33 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63">
-        <v>843.60885620117097</v>
+        <v>847.18441963195801</v>
       </c>
       <c r="F63">
-        <v>591.73226356506302</v>
+        <v>591.72368049621502</v>
       </c>
       <c r="G63">
-        <v>199.477434158325</v>
+        <v>135.414600372314</v>
       </c>
       <c r="H63">
-        <v>13.8592720031738</v>
+        <v>29.1633605957031</v>
       </c>
       <c r="I63">
-        <v>2547.85084724426</v>
+        <v>30678.300619125301</v>
       </c>
       <c r="J63">
-        <v>2761.2454891204802</v>
+        <v>30842.962026596</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>1056.9455623626698</v>
+        <v>1011.7623805999751</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>1.0569455623626698</v>
+        <v>1.0117623805999751</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -8297,33 +8620,33 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>840.80862998962402</v>
+        <v>835.31618118286099</v>
       </c>
       <c r="F64">
-        <v>588.54341506957996</v>
+        <v>604.37273979187</v>
       </c>
       <c r="G64">
-        <v>177.665948867797</v>
+        <v>114.526033401489</v>
       </c>
       <c r="H64">
-        <v>13.797283172607401</v>
+        <v>30.268669128417901</v>
       </c>
       <c r="I64">
-        <v>2576.5261650085399</v>
+        <v>45026.1943340301</v>
       </c>
       <c r="J64">
-        <v>2768.0523395538298</v>
+        <v>45171.0658073425</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>1032.2718620300284</v>
+        <v>980.11088371276787</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>1.0322718620300284</v>
+        <v>0.98011088371276789</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -8337,38 +8660,198 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>825.18029212951603</v>
+      </c>
+      <c r="F65">
+        <v>589.32280540466297</v>
+      </c>
+      <c r="G65">
+        <v>78.191757202148395</v>
+      </c>
+      <c r="H65">
+        <v>28.961420059204102</v>
+      </c>
+      <c r="I65">
+        <v>66193.135976791295</v>
+      </c>
+      <c r="J65">
+        <v>66300.364732742295</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>932.33346939086857</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0.93233346939086859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E65">
+      <c r="E66">
+        <v>830.27625083923294</v>
+      </c>
+      <c r="F66">
+        <v>589.72597122192303</v>
+      </c>
+      <c r="G66">
+        <v>455.19042015075598</v>
+      </c>
+      <c r="H66">
+        <v>13.653993606567299</v>
+      </c>
+      <c r="I66">
+        <v>2612.1044158935501</v>
+      </c>
+      <c r="J66">
+        <v>3081.0155868530201</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>1299.1206645965563</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>1.2991206645965563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
+        <v>843.60885620117097</v>
+      </c>
+      <c r="F67">
+        <v>591.73226356506302</v>
+      </c>
+      <c r="G67">
+        <v>199.477434158325</v>
+      </c>
+      <c r="H67">
+        <v>13.8592720031738</v>
+      </c>
+      <c r="I67">
+        <v>2547.85084724426</v>
+      </c>
+      <c r="J67">
+        <v>2761.2454891204802</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="0"/>
+        <v>1056.9455623626698</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>1.0569455623626698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10000</v>
+      </c>
+      <c r="B68">
+        <v>10000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>840.80862998962402</v>
+      </c>
+      <c r="F68">
+        <v>588.54341506957996</v>
+      </c>
+      <c r="G68">
+        <v>177.665948867797</v>
+      </c>
+      <c r="H68">
+        <v>13.797283172607401</v>
+      </c>
+      <c r="I68">
+        <v>2576.5261650085399</v>
+      </c>
+      <c r="J68">
+        <v>2768.0523395538298</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="0"/>
+        <v>1032.2718620300284</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>1.0322718620300284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>56962</v>
+      </c>
+      <c r="B69">
+        <v>56962</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69">
         <v>828.04894447326603</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>587.70298957824696</v>
       </c>
-      <c r="G65">
+      <c r="G69">
         <v>177.413702011108</v>
       </c>
-      <c r="H65">
+      <c r="H69">
         <v>13.7755870819091</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>2542.4768924713098</v>
       </c>
-      <c r="J65">
+      <c r="J69">
         <v>2733.7303161620998</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <f t="shared" si="0"/>
         <v>1019.2382335662832</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <f t="shared" si="1"/>
         <v>1.0192382335662831</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L65">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L2:L69">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8379,8 +8862,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G2:G69">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8400,7 +8883,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92630E6-782C-47F1-AEC3-62A5C9339832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0970B08-A8A8-4D72-B105-B6526A30AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 trees" sheetId="1" r:id="rId1"/>
-    <sheet name="500 trees" sheetId="2" r:id="rId2"/>
-    <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -135,6 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FE2DD4-240D-4401-AB6B-DDA24FF001C0}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="C36" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
@@ -3282,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17AADB-7A1D-4563-8585-13F012E6BC7D}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -6082,7 +6086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607216-E5DB-4978-9B0F-86A2BC3AF938}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -8883,7 +8887,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8911,51 +8915,63 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0.86</v>
-      </c>
-      <c r="C3">
-        <v>1.38</v>
-      </c>
-      <c r="D3">
-        <v>0.86</v>
-      </c>
-      <c r="E3">
-        <v>0.95</v>
+      <c r="B3" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
+        <v>0.86496281623840321</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
+        <v>1.3841755390167223</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
+        <v>0.85591793060302679</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
+        <v>0.95350432395934903</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4">
-        <v>0.96</v>
-      </c>
-      <c r="C4">
-        <v>1.43</v>
-      </c>
-      <c r="D4">
-        <v>0.88</v>
-      </c>
-      <c r="E4">
-        <v>0.97</v>
+      <c r="B4" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
+        <v>0.9600365161895742</v>
+      </c>
+      <c r="C4" s="1">
+        <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
+        <v>1.4327435493469223</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
+        <v>0.87827873229980391</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
+        <v>0.97048735618591142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
-      <c r="B5">
-        <v>1.19</v>
-      </c>
-      <c r="C5">
-        <v>1.57</v>
-      </c>
-      <c r="D5">
-        <v>0.97</v>
-      </c>
-      <c r="E5">
-        <v>1.03</v>
+      <c r="B5" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
+        <v>1.1946113109588612</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
+        <v>1.572401523590087</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
+        <v>0.97318983078002885</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
+        <v>1.0273208618164054</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8984,60 +9000,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0.85</v>
-      </c>
-      <c r="C9">
-        <v>1.87</v>
-      </c>
-      <c r="D9">
-        <v>0.86</v>
-      </c>
-      <c r="E9">
-        <v>0.94</v>
-      </c>
-      <c r="G9">
-        <v>2.39</v>
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
+        <v>0.85087633132934537</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
+        <v>1.872435092926017</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
+        <v>0.8593347072601315</v>
+      </c>
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
+        <v>0.94405245780944735</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
+        <v>2.4498009681701616</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
-        <v>0.97</v>
-      </c>
-      <c r="C10">
-        <v>1.73</v>
-      </c>
-      <c r="D10">
-        <v>0.89</v>
-      </c>
-      <c r="E10">
-        <v>0.96</v>
-      </c>
-      <c r="G10">
-        <v>2.4500000000000002</v>
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
+        <v>0.96949672698974543</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
+        <v>1.7317235469818111</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
+        <v>0.89352536201477006</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
+        <v>0.9623456001281725</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
+        <v>2.4569566249847359</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>1.19</v>
-      </c>
-      <c r="C11">
-        <v>1.73</v>
-      </c>
-      <c r="D11">
-        <v>0.97</v>
-      </c>
-      <c r="E11">
-        <v>0.96</v>
-      </c>
-      <c r="G11">
-        <v>2.4500000000000002</v>
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
+        <v>1.1862094402313219</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
+        <v>1.7273716926574703</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
+        <v>0.96819901466369518</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
+        <v>0.9641041755676264</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
+        <v>2.5411140918731645</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9063,54 +9097,67 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>0.86</v>
-      </c>
-      <c r="C15">
-        <v>1.73</v>
-      </c>
-      <c r="D15">
-        <v>0.86</v>
-      </c>
-      <c r="E15">
-        <v>0.96</v>
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
+        <v>0.85723400115966741</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L54:'10_trees'!L57)</f>
+        <v>1.7316727638244627</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
+        <v>0.85581731796264615</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L66:'10_trees'!L69)</f>
+        <v>0.95672941207885653</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>0.97</v>
-      </c>
-      <c r="C16">
-        <v>1.71</v>
-      </c>
-      <c r="D16">
-        <v>0.88</v>
-      </c>
-      <c r="E16">
-        <v>0.97</v>
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
+        <v>0.96969509124755782</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L54:'500_trees'!L57)</f>
+        <v>1.7063486576080318</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
+        <v>0.88257217407226551</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L66:'500_trees'!L69)</f>
+        <v>0.9730439186096177</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
-        <v>1.19</v>
-      </c>
-      <c r="C17">
-        <v>1.72</v>
-      </c>
-      <c r="D17">
-        <v>0.93</v>
-      </c>
-      <c r="E17">
-        <v>1.02</v>
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
+        <v>1.1940004825592028</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L54:'1600_trees'!L57)</f>
+        <v>1.7183885574340803</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
+        <v>0.93233346939086859</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L66:'1600_trees'!L69)</f>
+        <v>1.0192382335662831</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0970B08-A8A8-4D72-B105-B6526A30AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0D76A3-6282-4225-AF15-B432DCD6E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -185,6 +185,6998 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud Randomforest Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86496281623840321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9600365161895742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1946113109588612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77C3-481D-8D3D-6E46C7C6A3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3841755390167223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4327435493469223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.572401523590087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77C3-481D-8D3D-6E46C7C6A3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85591793060302679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87827873229980391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97318983078002885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77C3-481D-8D3D-6E46C7C6A3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95350432395934903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97048735618591142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0273208618164054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77C3-481D-8D3D-6E46C7C6A3AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="254258239"/>
+        <c:axId val="254261151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254258239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254261151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254261151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254258239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud Xgboost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85087633132934537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96949672698974543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1862094402313219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4B5-4369-B047-00C4E4BE0C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.872435092926017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7317235469818111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7273716926574703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4B5-4369-B047-00C4E4BE0C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8593347072601315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89352536201477006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96819901466369518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4B5-4369-B047-00C4E4BE0C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.94405245780944735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9623456001281725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9641041755676264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4B5-4369-B047-00C4E4BE0C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4498009681701616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4569566249847359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5411140918731645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B4B5-4369-B047-00C4E4BE0C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428841343"/>
+        <c:axId val="428839263"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B4B5-4369-B047-00C4E4BE0C27}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428841343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428839263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428839263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428841343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud LightGBM Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85723400115966741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96969509124755782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1940004825592028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D3C-4487-8955-75AEA507FF85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7316727638244627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7063486576080318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7183885574340803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D3C-4487-8955-75AEA507FF85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.85581731796264615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88257217407226551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93233346939086859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D3C-4487-8955-75AEA507FF85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95672941207885653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9730439186096177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0192382335662831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D3C-4487-8955-75AEA507FF85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="254254191"/>
+        <c:axId val="254254607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="254254191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254254607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="254254607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254254191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud Randomforest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7061653137206996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.142137527465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.06142616271899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F23-4656-8F59-E29D204F4CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>531.27312660217206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576.94578170776299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>712.78333663940396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F23-4656-8F59-E29D204F4CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1853866577148402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.105331420898398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.135305404663001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F23-4656-8F59-E29D204F4CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$3:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>117.413759231567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.07645034789999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.98868560791001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F23-4656-8F59-E29D204F4CC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="417054623"/>
+        <c:axId val="417055039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="417054623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417055039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417055039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417054623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud XGBoost Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.6842308044433496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.280181884765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331.939220428466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18C3-4416-912C-68B8189C06A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1014.253616333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>856.42409324645996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>868.55602264404297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18C3-4416-912C-68B8189C06A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.9147815704345703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.4679660797119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.419626235961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18C3-4416-912C-68B8189C06A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>109.979152679443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.424892425537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.418714523315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18C3-4416-912C-68B8189C06A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$T$9:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1581.2110900878899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1593.1940078735299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1655.9224128723099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-18C3-4416-912C-68B8189C06A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428433231"/>
+        <c:axId val="428429903"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$S$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$N$9:$N$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$S$9:$S$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-18C3-4416-912C-68B8189C06A2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428433231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428429903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428429903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428433231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LightGBM Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4763298034667898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.802463531494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>332.92198181152298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8482-43AF-A416-72838E68DF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>883.50725173950195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>854.086875915527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>862.13541030883698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8482-43AF-A416-72838E68DF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$15:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.2824954986572203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.685186386108398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.191757202148395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8482-43AF-A416-72838E68DF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$15:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>117.918252944946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.23688507080001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177.413702011108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8482-43AF-A416-72838E68DF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="404868463"/>
+        <c:axId val="404868879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404868463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404868879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404868879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404868463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC7EA5A-5AB9-D24B-E732-D89F0E083363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF28636-2680-DFA2-A6E7-33350706D3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FF990F-9B87-969A-BEEF-403BF822953A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A5D321-602F-7735-F4CB-A8856DD43C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5464F5-E729-9E1C-B170-EF48EE47BEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05EEDEF-B2C1-FBE4-D5D2-F3DB2D0E0AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +7478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FE2DD4-240D-4401-AB6B-DDA24FF001C0}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3286,7 +10278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17AADB-7A1D-4563-8585-13F012E6BC7D}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -6086,7 +13078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607216-E5DB-4978-9B0F-86A2BC3AF938}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -8884,20 +15876,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABF61A6-957F-4688-B968-542023E74E0B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -8910,8 +15905,20 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8931,8 +15938,27 @@
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
         <v>0.95350432395934903</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G5)</f>
+        <v>7.7061653137206996</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MIN('10_trees'!G6:'10_trees'!G9)</f>
+        <v>531.27312660217206</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>MIN('10_trees'!G14:'10_trees'!G17)</f>
+        <v>8.1853866577148402</v>
+      </c>
+      <c r="R3" s="1">
+        <f>MIN('10_trees'!G18:'10_trees'!G21)</f>
+        <v>117.413759231567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -8952,8 +15978,27 @@
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
         <v>0.97048735618591142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>500</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G5)</f>
+        <v>108.142137527465</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN('500_trees'!G6:'500_trees'!G9)</f>
+        <v>576.94578170776299</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>MIN('500_trees'!G14:'500_trees'!G17)</f>
+        <v>27.105331420898398</v>
+      </c>
+      <c r="R4" s="1">
+        <f>MIN('500_trees'!G18:'500_trees'!G21)</f>
+        <v>136.07645034789999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -8973,13 +16018,35 @@
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
         <v>1.0273208618164054</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>1600</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G5)</f>
+        <v>340.06142616271899</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN('1600_trees'!G6:'1600_trees'!G9)</f>
+        <v>712.78333663940396</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>MIN('1600_trees'!G14:'1600_trees'!G17)</f>
+        <v>97.135305404663001</v>
+      </c>
+      <c r="R5" s="1">
+        <f>MIN('1600_trees'!G18:'1600_trees'!G21)</f>
+        <v>188.98868560791001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -8995,8 +16062,23 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9021,8 +16103,32 @@
         <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
         <v>2.4498009681701616</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G22:'10_trees'!G25)</f>
+        <v>7.6842308044433496</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G26:'10_trees'!G29)</f>
+        <v>1014.253616333</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>MIN('10_trees'!G34:'10_trees'!G37)</f>
+        <v>7.9147815704345703</v>
+      </c>
+      <c r="R9" s="1">
+        <f>MIN('10_trees'!G38:'10_trees'!G41)</f>
+        <v>109.979152679443</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
+        <f>MIN('10_trees'!G46:'10_trees'!G49)</f>
+        <v>1581.2110900878899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -9047,8 +16153,32 @@
         <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
         <v>2.4569566249847359</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G22:'500_trees'!G25)</f>
+        <v>108.280181884765</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G26:'500_trees'!G29)</f>
+        <v>856.42409324645996</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>MIN('500_trees'!G34:'500_trees'!G37)</f>
+        <v>27.4679660797119</v>
+      </c>
+      <c r="R10" s="1">
+        <f>MIN('500_trees'!G38:'500_trees'!G41)</f>
+        <v>118.424892425537</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
+        <f>MIN('500_trees'!G46:'500_trees'!G49)</f>
+        <v>1593.1940078735299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -9073,13 +16203,40 @@
         <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
         <v>2.5411140918731645</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>1600</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G22:'1600_trees'!G25)</f>
+        <v>331.939220428466</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G26:'1600_trees'!G29)</f>
+        <v>868.55602264404297</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>MIN('1600_trees'!G34:'1600_trees'!G37)</f>
+        <v>115.419626235961</v>
+      </c>
+      <c r="R11" s="1">
+        <f>MIN('1600_trees'!G38:'1600_trees'!G41)</f>
+        <v>121.418714523315</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <f>MIN('1600_trees'!G46:'1600_trees'!G49)</f>
+        <v>1655.9224128723099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -9092,8 +16249,20 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9113,8 +16282,27 @@
         <f>MIN('10_trees'!L66:'10_trees'!L69)</f>
         <v>0.95672941207885653</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G50:'10_trees'!G53)</f>
+        <v>7.4763298034667898</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G54:'10_trees'!G57)</f>
+        <v>883.50725173950195</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>MIN('10_trees'!G62:'10_trees'!G65)</f>
+        <v>7.2824954986572203</v>
+      </c>
+      <c r="R15" s="1">
+        <f>MIN('10_trees'!G66:'10_trees'!G69)</f>
+        <v>117.918252944946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -9134,8 +16322,27 @@
         <f>MIN('500_trees'!L66:'500_trees'!L69)</f>
         <v>0.9730439186096177</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>500</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G50:'500_trees'!G53)</f>
+        <v>106.802463531494</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G54:'500_trees'!G57)</f>
+        <v>854.086875915527</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>MIN('500_trees'!G62:'500_trees'!G65)</f>
+        <v>30.685186386108398</v>
+      </c>
+      <c r="R16" s="1">
+        <f>MIN('500_trees'!G66:'500_trees'!G69)</f>
+        <v>133.23688507080001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -9155,9 +16362,29 @@
         <f>MIN('1600_trees'!L66:'1600_trees'!L69)</f>
         <v>1.0192382335662831</v>
       </c>
+      <c r="N17">
+        <v>1600</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G50:'1600_trees'!G53)</f>
+        <v>332.92198181152298</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G54:'1600_trees'!G57)</f>
+        <v>862.13541030883698</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>MIN('1600_trees'!G62:'1600_trees'!G65)</f>
+        <v>78.191757202148395</v>
+      </c>
+      <c r="R17" s="1">
+        <f>MIN('1600_trees'!G66:'1600_trees'!G69)</f>
+        <v>177.413702011108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0D76A3-6282-4225-AF15-B432DCD6E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE0BDB-56CF-4519-8763-25783BA94003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
+    <workbookView xWindow="12480" yWindow="912" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -130,6 +130,12 @@
   <si>
     <t>XGBoostGPU-1</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -188,1758 +194,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fraud Randomforest Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.86496281623840321</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9600365161895742</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1946113109588612</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77C3-481D-8D3D-6E46C7C6A3AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.3841755390167223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4327435493469223</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.572401523590087</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77C3-481D-8D3D-6E46C7C6A3AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.85591793060302679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87827873229980391</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97318983078002885</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-77C3-481D-8D3D-6E46C7C6A3AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.95350432395934903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97048735618591142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0273208618164054</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-77C3-481D-8D3D-6E46C7C6A3AD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="254258239"/>
-        <c:axId val="254261151"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="254258239"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254261151"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254261151"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254258239"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fraud Xgboost Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.85087633132934537</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96949672698974543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1862094402313219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4B5-4369-B047-00C4E4BE0C27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.872435092926017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7317235469818111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7273716926574703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4B5-4369-B047-00C4E4BE0C27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.8593347072601315</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89352536201477006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96819901466369518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B4B5-4369-B047-00C4E4BE0C27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.94405245780944735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9623456001281725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9641041755676264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B4B5-4369-B047-00C4E4BE0C27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.4498009681701616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4569566249847359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5411140918731645</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B4B5-4369-B047-00C4E4BE0C27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="428841343"/>
-        <c:axId val="428839263"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-B4B5-4369-B047-00C4E4BE0C27}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="428841343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="428839263"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="428839263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="428841343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fraud LightGBM Total</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.85723400115966741</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96969509124755782</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1940004825592028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7D3C-4487-8955-75AEA507FF85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.7316727638244627</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7063486576080318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7183885574340803</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7D3C-4487-8955-75AEA507FF85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.85581731796264615</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88257217407226551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93233346939086859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7D3C-4487-8955-75AEA507FF85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.95672941207885653</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9730439186096177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0192382335662831</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7D3C-4487-8955-75AEA507FF85}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="254254191"/>
-        <c:axId val="254254607"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="254254191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254254607"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254254607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="254254191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2479,7 +733,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3159,7 +1413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3621,6 +1875,3487 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="404868463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud Randomforest Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86730568432340405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96578495525846197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1978613617373439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.3906909706545802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.438511538739297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.571179795498941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86571304821500561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88546745800504467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95792334103116761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96034185909757375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97926442646512735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0322558166933991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="160683552"/>
+        <c:axId val="160689792"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="160683552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160689792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="160689792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="160683552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud XGBoost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8652540924502351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96597759747037615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1898700478030177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8720018150759596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.714649367566202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7271243812991122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8660175087405183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88646523975858482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97352521442899398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95235888981351613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96091644787320873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96389262699613321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4398950817538236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4510983707858012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5166174652529651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="158211024"/>
+        <c:axId val="158211440"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-4518-47E9-9FB0-D9BA0C8AEC8A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="158211024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158211440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="158211440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158211024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fraud LIghtGBM Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86495845341214916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96412031673917553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1910795452548002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5A7-4D1A-B28F-AD91B766D540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7435621502352694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7144164326144196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7201470615817041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5A7-4D1A-B28F-AD91B766D540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86510794186124595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88843863033780834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93646829151639732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5A7-4D1A-B28F-AD91B766D540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9613243820620514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97630469822416022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0205044033480619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B5A7-4D1A-B28F-AD91B766D540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B5A7-4D1A-B28F-AD91B766D540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="163431488"/>
+        <c:axId val="163443552"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B5A7-4D1A-B28F-AD91B766D540}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B5A7-4D1A-B28F-AD91B766D540}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="163431488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163443552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163443552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="163431488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6962,114 +8697,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC7EA5A-5AB9-D24B-E732-D89F0E083363}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF28636-2680-DFA2-A6E7-33350706D3C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FF990F-9B87-969A-BEEF-403BF822953A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -7098,7 +8725,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7134,7 +8761,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7159,6 +8786,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05EEDEF-B2C1-FBE4-D5D2-F3DB2D0E0AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6B1FF-934A-6A42-768B-9F739540C69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9069ADB1-AC26-8A2D-5302-3DD0BB15388B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A38F44A-A9AA-2B92-5352-F36103CAF22E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7476,10 +9211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FE2DD4-240D-4401-AB6B-DDA24FF001C0}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7557,12 +9292,12 @@
         <v>162901.70383453299</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>3112.0631694793683</v>
+        <f>SUM($E$71,G2,H2)</f>
+        <v>3121.0564854098284</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>3.1120631694793683</v>
+        <v>3.1210564854098286</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -7597,12 +9332,12 @@
         <v>4464.9691581726001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
-        <v>905.88140487670898</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
+        <v>917.50137829313076</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>0.90588140487670898</v>
+        <v>0.91750137829313072</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -7638,11 +9373,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>865.69929122924782</v>
+        <v>874.26488422879959</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.86569929122924782</v>
+        <v>0.87426488422879955</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -7678,11 +9413,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>864.96281623840321</v>
+        <v>867.30568432340408</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.86496281623840321</v>
+        <v>0.86730568432340405</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -7718,11 +9453,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>7585.3879451751691</v>
+        <v>7595.1394321871721</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>7.5853879451751691</v>
+        <v>7.5951394321871719</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -7758,11 +9493,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1679.1498661041251</v>
+        <v>1681.6546204043359</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.6791498661041251</v>
+        <v>1.6816546204043359</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -7798,11 +9533,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1389.4159793853746</v>
+        <v>1400.2060177279443</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.3894159793853746</v>
+        <v>1.4002060177279443</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -7838,11 +9573,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1384.1755390167223</v>
+        <v>1390.6909706545803</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.3841755390167223</v>
+        <v>1.3906909706545802</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -7878,11 +9613,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1012.1812820434559</v>
+        <v>1016.3952591372467</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.0121812820434559</v>
+        <v>1.0163952591372467</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -7918,11 +9653,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>905.27963638305584</v>
+        <v>903.55246090421463</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.90527963638305586</v>
+        <v>0.90355246090421459</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -7958,11 +9693,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>888.413429260253</v>
+        <v>896.7568161440829</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.88841342926025302</v>
+        <v>0.89675681614408287</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -7998,11 +9733,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>873.63219261169377</v>
+        <v>883.46045040616764</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.87363219261169378</v>
+        <v>0.88346045040616761</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -8038,11 +9773,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1015.4714584350581</v>
+        <v>1023.0411770297029</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.0154714584350581</v>
+        <v>1.023041177029703</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -8078,11 +9813,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>884.44995880126862</v>
+        <v>882.25762867460048</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.88444995880126864</v>
+        <v>0.88225762867460045</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -8118,11 +9853,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>873.21710586547783</v>
+        <v>868.72952007779861</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.87321710586547785</v>
+        <v>0.86872952007779858</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -8158,11 +9893,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>855.91793060302678</v>
+        <v>865.71304821500564</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.85591793060302679</v>
+        <v>0.86571304821500561</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -8198,11 +9933,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>4310.4560375213541</v>
+        <v>4313.3358242464919</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.3104560375213543</v>
+        <v>4.3133358242464919</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -8238,11 +9973,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>976.99522972106797</v>
+        <v>981.20253109464375</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.976995229721068</v>
+        <v>0.98120253109464373</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -8278,11 +10013,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>953.50432395934899</v>
+        <v>960.50517582425778</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.95350432395934903</v>
+        <v>0.96050517582425776</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -8318,11 +10053,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>969.89917755126896</v>
+        <v>960.34185909757377</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.96989917755126898</v>
+        <v>0.96034185909757375</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -8358,11 +10093,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1406.6083431243887</v>
+        <v>1404.1816475344635</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4066083431243888</v>
+        <v>1.4041816475344635</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -8398,11 +10133,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>915.35329818725529</v>
+        <v>924.05002140531315</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.9153532981872553</v>
+        <v>0.92405002140531312</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -8438,11 +10173,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>867.76661872863735</v>
+        <v>874.39053081998622</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.86776661872863736</v>
+        <v>0.87439053081998619</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -8478,11 +10213,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>850.87633132934536</v>
+        <v>865.25409245023513</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0.85087633132934537</v>
+        <v>0.8652540924502351</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -8518,11 +10253,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4927.0260334014865</v>
+        <v>4934.2395546389535</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.9270260334014866</v>
+        <v>4.9342395546389533</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -8558,11 +10293,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1938.4419918060298</v>
+        <v>1946.0055115176176</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.9384419918060298</v>
+        <v>1.9460055115176176</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -8598,11 +10333,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2178.4524917602521</v>
+        <v>2187.3037102175676</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.1784524917602521</v>
+        <v>2.1873037102175679</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -8638,11 +10373,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1872.435092926017</v>
+        <v>1872.0018150759597</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.872435092926017</v>
+        <v>1.8720018150759596</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -8678,11 +10413,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>1739.6309375762933</v>
+        <v>1746.9128849459621</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>1.7396309375762933</v>
+        <v>1.7469128849459621</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -8718,11 +10453,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1726.4847755432115</v>
+        <v>1736.2534286929103</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>1.7264847755432116</v>
+        <v>1.7362534286929103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -8758,11 +10493,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1720.6120491027818</v>
+        <v>1730.1277401400539</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.7206120491027819</v>
+        <v>1.7301277401400539</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -8798,11 +10533,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1736.344337463378</v>
+        <v>1738.78781818876</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1.736344337463378</v>
+        <v>1.7387878181887599</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -8838,11 +10573,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1012.3913288116453</v>
+        <v>1020.7645180178621</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.0123913288116453</v>
+        <v>1.0207645180178622</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -8878,11 +10613,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>875.52165985107376</v>
+        <v>882.09621929654861</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.87552165985107377</v>
+        <v>0.88209621929654858</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -8918,11 +10653,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>874.20725822448685</v>
+        <v>868.86112713346279</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.87420725822448686</v>
+        <v>0.86886112713346275</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -8958,11 +10693,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>859.33470726013149</v>
+        <v>866.01750874051834</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.8593347072601315</v>
+        <v>0.8660175087405183</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -8998,11 +10733,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1309.3731403350816</v>
+        <v>1317.9609062624904</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.3093731403350817</v>
+        <v>1.3179609062624904</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9038,11 +10773,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>981.55593872070244</v>
+        <v>979.69834827909222</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0.98155593872070246</v>
+        <v>0.97969834827909219</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9078,11 +10813,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>966.00890159606843</v>
+        <v>960.98964237699226</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.96600890159606845</v>
+        <v>0.96098964237699225</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9118,11 +10853,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>944.05245780944733</v>
+        <v>952.35888981351616</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.94405245780944735</v>
+        <v>0.95235888981351613</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9158,11 +10893,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>24670.156240463242</v>
+        <v>24675.799298520167</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>24.670156240463243</v>
+        <v>24.675799298520168</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -9198,11 +10933,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2448.8968849182052</v>
+        <v>2455.1660301638512</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.4488968849182053</v>
+        <v>2.4551660301638512</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9238,11 +10973,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2392.0574188232381</v>
+        <v>2396.8054535342162</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.3920574188232382</v>
+        <v>2.3968054535342165</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9278,11 +11013,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2385.4079246520946</v>
+        <v>2390.6080009890493</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.3854079246520947</v>
+        <v>2.3906080009890491</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -9318,11 +11053,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>5521.5880870819001</v>
+        <v>5508.3798649264227</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>5.5215880870819003</v>
+        <v>5.5083798649264226</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -9358,11 +11093,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2531.7084789276082</v>
+        <v>2514.629769558996</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>2.5317084789276083</v>
+        <v>2.5146297695589959</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -9398,11 +11133,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2450.9782791137686</v>
+        <v>2439.8950817538234</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.4509782791137686</v>
+        <v>2.4398950817538236</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -9438,11 +11173,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2449.8009681701615</v>
+        <v>2443.1192161990102</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.4498009681701616</v>
+        <v>2.4431192161990101</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -9478,11 +11213,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1410.9928607940665</v>
+        <v>1420.2880146456694</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4109928607940665</v>
+        <v>1.4202880146456693</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -9518,11 +11253,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>911.40103340148892</v>
+        <v>920.19884609708572</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>0.91140103340148892</v>
+        <v>0.92019884609708569</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -9558,11 +11293,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>865.58389663696244</v>
+        <v>873.80139851102626</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>0.86558389663696245</v>
+        <v>0.87380139851102623</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -9598,11 +11333,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>857.2340011596674</v>
+        <v>864.9584534121492</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>0.85723400115966741</v>
+        <v>0.86495845341214916</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -9638,11 +11373,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2363.2168769836339</v>
+        <v>2369.3472626162429</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.3632168769836341</v>
+        <v>2.3693472626162428</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -9678,11 +11413,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1795.722246170043</v>
+        <v>1791.1276104403469</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.7957222461700431</v>
+        <v>1.7911276104403469</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -9718,11 +11453,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2108.2241535186681</v>
+        <v>2112.813163037385</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.1082241535186683</v>
+        <v>2.112813163037385</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9758,11 +11493,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1731.6727638244627</v>
+        <v>1743.5621502352694</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7316727638244627</v>
+        <v>1.7435621502352694</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -9798,11 +11533,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>937.01195716857887</v>
+        <v>946.63136028775966</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>0.93701195716857888</v>
+        <v>0.94663136028775963</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -9838,11 +11573,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>901.42536163329999</v>
+        <v>909.5906498385408</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>0.9014253616333</v>
+        <v>0.90959064983854077</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -9878,11 +11613,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>900.98500251769929</v>
+        <v>902.74636768827213</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.90098500251769931</v>
+        <v>0.9027463676882721</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -9918,11 +11653,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>889.46819305419899</v>
+        <v>900.4186871005038</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.889468193054199</v>
+        <v>0.90041868710050377</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -9958,11 +11693,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1015.31171798706</v>
+        <v>1022.1206428957918</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.0153117179870601</v>
+        <v>1.0221206428957919</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -9998,11 +11733,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>879.70137596130292</v>
+        <v>882.51464390287174</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.87970137596130293</v>
+        <v>0.88251464390287171</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -10038,11 +11773,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>860.35442352294899</v>
+        <v>869.07284283170486</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.860354423522949</v>
+        <v>0.86907284283170483</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -10078,11 +11813,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>855.81731796264614</v>
+        <v>865.10794186124599</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.85581731796264615</v>
+        <v>0.86510794186124595</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -10118,11 +11853,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1225.1152992248522</v>
+        <v>1232.0102932406398</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.2251152992248522</v>
+        <v>1.2320102932406398</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -10157,12 +11892,12 @@
         <v>2576.19309425354</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>982.98883438110181</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
+        <v>987.88135075101559</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0.98298883438110185</v>
+        <v>0.98788135075101557</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -10197,12 +11932,12 @@
         <v>2556.7169189453102</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>956.72941207885651</v>
+        <f t="shared" si="2"/>
+        <v>961.32438206205143</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>0.95672941207885653</v>
+        <v>0.9613243820620514</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -10237,12 +11972,21 @@
         <v>2655.49826622009</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>1039.2687320709224</v>
+        <f t="shared" si="2"/>
+        <v>1046.8441727114653</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>1.0392687320709224</v>
+        <v>1.0468441727114652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <f>AVERAGE(E2:E69,'500_trees'!E2:'500_trees'!E69,'1600_trees'!E2:'1600_trees'!E69)</f>
+        <v>829.31511425504482</v>
       </c>
     </row>
   </sheetData>
@@ -10276,10 +12020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17AADB-7A1D-4563-8585-13F012E6BC7D}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10357,12 +12101,12 @@
         <v>10921.4990139007</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>1416.0473346710198</v>
+        <f>SUM($E$71,G2,H2)</f>
+        <v>1428.4178497744538</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>1.4160473346710198</v>
+        <v>1.4284178497744537</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10397,12 +12141,12 @@
         <v>5130.0625801086398</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
-        <v>991.61076545715287</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
+        <v>997.73018383512272</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>0.99161076545715288</v>
+        <v>0.99773018383512269</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10438,11 +12182,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>974.02310371398846</v>
+        <v>975.97353481778828</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.97402310371398848</v>
+        <v>0.97597353481778826</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10478,11 +12222,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>960.03651618957417</v>
+        <v>965.78495525846199</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.9600365161895742</v>
+        <v>0.96578495525846197</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -10518,11 +12262,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2112.7097606658931</v>
+        <v>2120.038199658487</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2.1127097606658931</v>
+        <v>2.1200381996584872</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10558,11 +12302,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1471.1492061614986</v>
+        <v>1477.5735619021393</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.4711492061614986</v>
+        <v>1.4775735619021393</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10598,11 +12342,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1448.7595558166488</v>
+        <v>1457.1737530184716</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.4487595558166488</v>
+        <v>1.4571737530184716</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10638,11 +12382,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1432.7435493469222</v>
+        <v>1438.5115387392971</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.4327435493469223</v>
+        <v>1.438511538739297</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -10678,11 +12422,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1217.951536178588</v>
+        <v>1189.5689251376127</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.217951536178588</v>
+        <v>1.1895689251376127</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10718,11 +12462,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1099.0412235259994</v>
+        <v>1103.6125900698632</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.0990412235259994</v>
+        <v>1.1036125900698632</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10758,11 +12502,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1092.334508895874</v>
+        <v>1097.1938850832919</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.092334508895874</v>
+        <v>1.0971938850832919</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10798,11 +12542,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1087.9836082458492</v>
+        <v>1094.9148418856598</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.0879836082458492</v>
+        <v>1.0949148418856598</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10838,11 +12582,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1034.3074798583975</v>
+        <v>1046.7063667727443</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.0343074798583975</v>
+        <v>1.0467063667727443</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10878,11 +12622,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>905.50827980041493</v>
+        <v>912.3534443331697</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.90550827980041493</v>
+        <v>0.91235344433316967</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10918,11 +12662,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>892.239332199096</v>
+        <v>898.10435795316482</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.89223933219909601</v>
+        <v>0.89810435795316479</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10958,11 +12702,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>878.27873229980389</v>
+        <v>885.4674580050447</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.87827873229980391</v>
+        <v>0.88546745800504467</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10998,11 +12742,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1424.7145652770987</v>
+        <v>1423.1483223391506</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1.4247145652770987</v>
+        <v>1.4231483223391506</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -11038,11 +12782,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>990.17429351806584</v>
+        <v>999.03051876554264</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.99017429351806585</v>
+        <v>0.99903051876554261</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -11078,11 +12822,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>973.88577461242562</v>
+        <v>979.26442646512737</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.97388577461242565</v>
+        <v>0.97926442646512735</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -11118,11 +12862,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>970.48735618591138</v>
+        <v>979.5209648562402</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.97048735618591142</v>
+        <v>0.97952096485624018</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -11158,11 +12902,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1404.4928550720201</v>
+        <v>1408.3015205813379</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4044928550720202</v>
+        <v>1.4083015205813378</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -11198,11 +12942,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>985.85963249206361</v>
+        <v>996.19596027860348</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.98585963249206365</v>
+        <v>0.99619596027860347</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -11238,11 +12982,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>975.06546974182004</v>
+        <v>973.34973835477581</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.97506546974182007</v>
+        <v>0.97334973835477578</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11278,11 +13022,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>969.49672698974541</v>
+        <v>965.97759747037617</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0.96949672698974543</v>
+        <v>0.96597759747037615</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -11318,11 +13062,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>2162.883758544921</v>
+        <v>2169.9883224917385</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2.162883758544921</v>
+        <v>2.1699883224917387</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11358,11 +13102,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1993.5734272003101</v>
+        <v>1997.1954109621909</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.9935734272003101</v>
+        <v>1.997195410962191</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11398,11 +13142,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2219.5577621459893</v>
+        <v>2224.3992569399752</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.2195577621459894</v>
+        <v>2.2243992569399751</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11438,11 +13182,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1731.7235469818111</v>
+        <v>1714.649367566202</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.7317235469818111</v>
+        <v>1.714649367566202</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11478,11 +13222,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2044.6083545684751</v>
+        <v>2053.4149887514986</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>2.0446083545684752</v>
+        <v>2.0534149887514985</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11518,11 +13262,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1990.3056621551439</v>
+        <v>1988.6969807101157</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>1.9903056621551438</v>
+        <v>1.9886969807101158</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11558,11 +13302,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1963.1795883178634</v>
+        <v>1971.0084679079912</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.9631795883178633</v>
+        <v>1.9710084679079913</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11598,11 +13342,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1966.5322303771882</v>
+        <v>1974.419999356355</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1.9665322303771882</v>
+        <v>1.9744199993563549</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -11638,11 +13382,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1041.0439968109117</v>
+        <v>1051.1881592226955</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.0410439968109118</v>
+        <v>1.0511881592226955</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11678,11 +13422,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>901.11064910888592</v>
+        <v>910.65423511991276</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.90111064910888594</v>
+        <v>0.91065423511991272</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11718,11 +13462,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>914.27564620971657</v>
+        <v>901.19020962247635</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.91427564620971657</v>
+        <v>0.90119020962247631</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11758,11 +13502,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>893.52536201477005</v>
+        <v>886.46523975858486</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.89352536201477006</v>
+        <v>0.88646523975858482</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11798,11 +13542,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1229.5908927917469</v>
+        <v>1234.2015984011628</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.2295908927917469</v>
+        <v>1.2342015984011627</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11838,11 +13582,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>1018.2814598083488</v>
+        <v>997.44360470304264</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>1.0182814598083489</v>
+        <v>0.99744360470304261</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11878,11 +13622,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>962.34560012817246</v>
+        <v>962.51146816739742</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.9623456001281725</v>
+        <v>0.96251146816739741</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11918,11 +13662,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>985.93902587890591</v>
+        <v>960.91644787320877</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.98593902587890592</v>
+        <v>0.96091644787320873</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11958,11 +13702,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>5339.3304347991916</v>
+        <v>5336.5031959963753</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>5.3393304347991917</v>
+        <v>5.3365031959963751</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11998,11 +13742,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2748.7013339996288</v>
+        <v>2750.1081707430776</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.7487013339996289</v>
+        <v>2.7501081707430775</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -12038,11 +13782,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2446.2685585021891</v>
+        <v>2452.5269749117747</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.4462685585021893</v>
+        <v>2.4525269749117746</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -12078,11 +13822,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2450.1316547393699</v>
+        <v>2432.7959301424871</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.4501316547393701</v>
+        <v>2.4327959301424871</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -12118,11 +13862,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>7668.6968803405753</v>
+        <v>7666.0823109103185</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>7.6686968803405753</v>
+        <v>7.6660823109103182</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -12158,11 +13902,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2788.2649898528989</v>
+        <v>2781.956124539463</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>2.7882649898528991</v>
+        <v>2.7819561245394628</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -12198,11 +13942,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2489.1502857208156</v>
+        <v>2482.6001408053285</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.4891502857208159</v>
+        <v>2.4826001408053284</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -12238,11 +13982,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2456.9566249847358</v>
+        <v>2451.0983707858013</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.4569566249847359</v>
+        <v>2.4510983707858012</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -12278,11 +14022,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1417.7045822143543</v>
+        <v>1401.7490627718903</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4177045822143544</v>
+        <v>1.4017490627718903</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -12318,11 +14062,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1012.1471881866446</v>
+        <v>997.44288944730545</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.0121471881866446</v>
+        <v>0.99744288944730541</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -12358,11 +14102,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>1008.5530281066887</v>
+        <v>970.36974453458549</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>1.0085530281066888</v>
+        <v>0.97036974453458547</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -12398,11 +14142,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>969.6950912475578</v>
+        <v>964.12031673917556</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>0.96969509124755782</v>
+        <v>0.96412031673917553</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -12438,11 +14182,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2116.5134906768703</v>
+        <v>2087.6170875979315</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.1165134906768706</v>
+        <v>2.0876170875979314</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -12478,11 +14222,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1822.0169544219957</v>
+        <v>1797.2165825320217</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.8220169544219957</v>
+        <v>1.7972165825320217</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -12518,11 +14262,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2094.628572463982</v>
+        <v>2102.899003262607</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.0946285724639822</v>
+        <v>2.1028990032626069</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -12558,11 +14302,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1706.3486576080318</v>
+        <v>1714.4164326144196</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7063486576080318</v>
+        <v>1.7144164326144196</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -12598,11 +14342,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1283.1079959869378</v>
+        <v>1285.5667355013825</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>1.2831079959869378</v>
+        <v>1.2855667355013825</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -12638,11 +14382,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1242.2511577606192</v>
+        <v>1247.0540287447902</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>1.2422511577606192</v>
+        <v>1.2470540287447902</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -12678,11 +14422,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1211.9247913360582</v>
+        <v>1220.564294095132</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>1.2119247913360582</v>
+        <v>1.220564294095132</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -12718,11 +14462,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>1211.7447853088372</v>
+        <v>1213.1459000063871</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>1.2117447853088372</v>
+        <v>1.2131459000063871</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -12758,11 +14502,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1043.3127880096424</v>
+        <v>1049.6362926913232</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.0433127880096424</v>
+        <v>1.0496362926913232</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -12798,11 +14542,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>907.35363960266022</v>
+        <v>911.41288303861404</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.90735363960266024</v>
+        <v>0.91141288303861401</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12838,11 +14582,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>891.78991317748955</v>
+        <v>897.29588055143142</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.89178991317748957</v>
+        <v>0.89729588055143139</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -12878,11 +14622,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>882.57217407226551</v>
+        <v>888.43863033780838</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.88257217407226551</v>
+        <v>0.88843863033780834</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -12918,11 +14662,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1243.1290149688709</v>
+        <v>1249.3998291445707</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.243129014968871</v>
+        <v>1.2493998291445707</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -12957,12 +14701,12 @@
         <v>2641.0562992095902</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>998.47865104675202</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
+        <v>998.44543957242684</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0.99847865104675204</v>
+        <v>0.99844543957242682</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -12997,12 +14741,12 @@
         <v>2627.34937667846</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>983.21700096130246</v>
+        <f t="shared" si="2"/>
+        <v>976.30469822416023</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>0.98321700096130249</v>
+        <v>0.97630469822416022</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -13037,12 +14781,21 @@
         <v>2613.9147281646701</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>973.04391860961766</v>
+        <f t="shared" si="2"/>
+        <v>977.90114902982452</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>0.9730439186096177</v>
+        <v>0.9779011490298245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <f xml:space="preserve"> ('10_trees'!E71)</f>
+        <v>829.31511425504482</v>
       </c>
     </row>
   </sheetData>
@@ -13076,10 +14829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607216-E5DB-4978-9B0F-86A2BC3AF938}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13157,12 +14910,12 @@
         <v>11783.065319061199</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>1460.8948230743404</v>
+        <f>SUM($E$71,G2,H2)</f>
+        <v>1469.6437599612211</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>1.4608948230743404</v>
+        <v>1.4696437599612211</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -13197,12 +14950,12 @@
         <v>6694.7731971740704</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K69" si="0">SUM(E3,G3,H3)</f>
-        <v>1252.1662712097159</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
+        <v>1223.4198334170319</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>1.2521662712097159</v>
+        <v>1.2234198334170319</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -13238,11 +14991,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1209.0802192687979</v>
+        <v>1201.2724163485498</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.2090802192687979</v>
+        <v>1.2012724163485498</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -13278,11 +15031,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1194.6113109588612</v>
+        <v>1197.8613617373439</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.1946113109588612</v>
+        <v>1.1978613617373439</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13318,11 +15071,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2057.0156574249195</v>
+        <v>2050.2881290865812</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2.0570156574249197</v>
+        <v>2.0502881290865811</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13358,11 +15111,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1668.9269542694083</v>
+        <v>1650.768208737466</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.6689269542694083</v>
+        <v>1.650768208737466</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13398,11 +15151,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1598.5627174377428</v>
+        <v>1600.3269436312646</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.5985627174377428</v>
+        <v>1.6003269436312646</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13438,11 +15191,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1572.401523590087</v>
+        <v>1571.1797954989411</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.572401523590087</v>
+        <v>1.571179795498941</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13478,11 +15231,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1711.7896080017081</v>
+        <v>1714.0073063326809</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.7117896080017081</v>
+        <v>1.7140073063326808</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13518,11 +15271,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1552.9174804687489</v>
+        <v>1554.8545601321198</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.5529174804687489</v>
+        <v>1.5548545601321198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -13558,11 +15311,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1535.3004932403558</v>
+        <v>1535.4210617495514</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.5353004932403558</v>
+        <v>1.5354210617495514</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13598,11 +15351,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1538.9151573181143</v>
+        <v>1530.5728199435212</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.5389151573181143</v>
+        <v>1.5305728199435211</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13638,11 +15391,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1114.5207881927481</v>
+        <v>1118.0717232180571</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.1145207881927481</v>
+        <v>1.118071723218057</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13678,11 +15431,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>991.9526576995836</v>
+        <v>994.65529942044941</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.99195265769958363</v>
+        <v>0.99465529942044939</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13718,11 +15471,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>973.58942031860227</v>
+        <v>973.54142689237312</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.97358942031860229</v>
+        <v>0.97354142689237311</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13758,11 +15511,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>973.18983078002884</v>
+        <v>957.92334103116764</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.97318983078002885</v>
+        <v>0.95792334103116761</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13798,11 +15551,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1470.8869457244866</v>
+        <v>1471.0878612948395</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1.4708869457244866</v>
+        <v>1.4710878612948395</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -13838,11 +15591,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1066.0130977630604</v>
+        <v>1051.8359425021142</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1.0660130977630604</v>
+        <v>1.0518359425021142</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -13878,11 +15631,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1048.9220619201651</v>
+        <v>1032.9832317782377</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1.0489220619201651</v>
+        <v>1.0329832317782377</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -13918,11 +15671,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1027.3208618164053</v>
+        <v>1032.2558166933991</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>1.0273208618164054</v>
+        <v>1.0322558166933991</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -13958,11 +15711,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1399.784803390502</v>
+        <v>1401.2359859896637</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.399784803390502</v>
+        <v>1.4012359859896637</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -13998,11 +15751,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1221.1680412292467</v>
+        <v>1220.2152492953276</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>1.2211680412292467</v>
+        <v>1.2202152492953275</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -14038,11 +15791,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>1201.1284828186033</v>
+        <v>1195.9914448214511</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>1.2011284828186033</v>
+        <v>1.195991444821451</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -14078,11 +15831,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1186.2094402313219</v>
+        <v>1189.8700478030178</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>1.1862094402313219</v>
+        <v>1.1898700478030177</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -14118,11 +15871,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>2109.1191768646149</v>
+        <v>2112.0929005099188</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2.1091191768646151</v>
+        <v>2.1120929005099187</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -14158,11 +15911,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1971.7469215393032</v>
+        <v>1961.962390179724</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.9717469215393033</v>
+        <v>1.9619623901797241</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -14198,11 +15951,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2334.2607021331742</v>
+        <v>2316.9116260958608</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.3342607021331743</v>
+        <v>2.3169116260958607</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -14238,11 +15991,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1727.3716926574702</v>
+        <v>1727.1243812991122</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.7273716926574703</v>
+        <v>1.7271243812991122</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -14278,11 +16031,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2640.2542591094953</v>
+        <v>2640.1015999270403</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>2.6402542591094953</v>
+        <v>2.6401015999270405</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -14318,11 +16071,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>2522.2959518432549</v>
+        <v>2520.5141785097985</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>2.5222959518432551</v>
+        <v>2.5205141785097984</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -14358,11 +16111,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2374.241828918452</v>
+        <v>2373.0484726382188</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>2.3742418289184521</v>
+        <v>2.3730484726382186</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -14398,11 +16151,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>2468.7294960021964</v>
+        <v>2466.4706470919582</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>2.4687294960021964</v>
+        <v>2.4664706470919584</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -14438,11 +16191,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1114.9234771728509</v>
+        <v>1120.1707603884677</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.1149234771728509</v>
+        <v>1.1201707603884676</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -14478,11 +16231,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>991.97888374328545</v>
+        <v>995.98710560331131</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.99197888374328547</v>
+        <v>0.99598710560331127</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -14518,11 +16271,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>974.98202323913506</v>
+        <v>976.85043835172382</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.97498202323913508</v>
+        <v>0.9768504383517238</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -14558,11 +16311,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>968.19901466369515</v>
+        <v>973.52521442899399</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.96819901466369518</v>
+        <v>0.97352521442899398</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -14598,11 +16351,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1250.6804466247552</v>
+        <v>1243.862080807779</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.2506804466247552</v>
+        <v>1.2438620808077789</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -14638,11 +16391,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>996.9460964202874</v>
+        <v>991.0179855776762</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0.99694609642028742</v>
+        <v>0.99101798557767617</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -14678,11 +16431,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>966.76993370056005</v>
+        <v>966.66281246671383</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.96676993370056008</v>
+        <v>0.96666281246671382</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -14718,11 +16471,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>964.10417556762638</v>
+        <v>963.89262699613323</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.9641041755676264</v>
+        <v>0.96389262699613321</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -14758,11 +16511,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>8369.9691295623688</v>
+        <v>8370.556283230866</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>8.369969129562369</v>
+        <v>8.3705562832308669</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -14798,11 +16551,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3000.9477138519228</v>
+        <v>3001.8257381869234</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.0009477138519229</v>
+        <v>3.0018257381869233</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -14838,11 +16591,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2490.9455776214536</v>
+        <v>2491.5441753817477</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.4909455776214537</v>
+        <v>2.4915441753817476</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -14878,11 +16631,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2449.3420124053864</v>
+        <v>2450.5726578188787</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.4493420124053866</v>
+        <v>2.4505726578188787</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -14918,11 +16671,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>11503.403663635238</v>
+        <v>11482.476878399926</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>11.503403663635238</v>
+        <v>11.482476878399927</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -14958,11 +16711,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>3222.5983142852683</v>
+        <v>3195.6211807680975</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>3.2225983142852686</v>
+        <v>3.1956211807680974</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -14998,11 +16751,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2598.991870880126</v>
+        <v>2570.6781628085109</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.5989918708801261</v>
+        <v>2.5706781628085111</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -15038,11 +16791,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2541.1140918731644</v>
+        <v>2516.6174652529653</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.5411140918731645</v>
+        <v>2.5166174652529651</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -15078,11 +16831,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1416.5592193603516</v>
+        <v>1417.5967457247714</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4165592193603516</v>
+        <v>1.4175967457247713</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -15118,11 +16871,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1217.2901630401598</v>
+        <v>1216.9837238741848</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.2172901630401598</v>
+        <v>1.2169837238741847</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -15158,11 +16911,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>1194.0004825592027</v>
+        <v>1198.7673523379297</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>1.1940004825592028</v>
+        <v>1.1987673523379296</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -15198,11 +16951,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1206.4604759216304</v>
+        <v>1191.0795452548002</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.2064604759216304</v>
+        <v>1.1910795452548002</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -15238,11 +16991,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2078.5040855407701</v>
+        <v>2078.3917190981838</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.0785040855407702</v>
+        <v>2.078391719098184</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -15278,11 +17031,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1945.5142021179095</v>
+        <v>1938.9673950625302</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.9455142021179095</v>
+        <v>1.9389673950625301</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -15318,11 +17071,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2216.4564132690407</v>
+        <v>2197.1642258120492</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.2164564132690407</v>
+        <v>2.1971642258120494</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -15358,11 +17111,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1718.3885574340802</v>
+        <v>1720.1470615817041</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7183885574340803</v>
+        <v>1.7201470615817041</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -15398,11 +17151,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>2200.452327728266</v>
+        <v>2203.0421974612163</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>2.2004523277282662</v>
+        <v>2.2030421974612162</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -15438,11 +17191,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1965.7309055328278</v>
+        <v>1961.1963512850657</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>1.9657309055328278</v>
+        <v>1.9611963512850656</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -15478,11 +17231,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1645.7910537719713</v>
+        <v>1646.5029003573391</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>1.6457910537719713</v>
+        <v>1.646502900357339</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -15518,11 +17271,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>1874.0644454956005</v>
+        <v>1871.2367298556262</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>1.8740644454956006</v>
+        <v>1.8712367298556263</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -15558,11 +17311,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1115.7829761505118</v>
+        <v>1117.7579643679596</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.1157829761505118</v>
+        <v>1.1177579643679596</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -15598,11 +17351,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>1011.7623805999751</v>
+        <v>993.89307522306194</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>1.0117623805999751</v>
+        <v>0.99389307522306192</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -15638,11 +17391,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>980.11088371276787</v>
+        <v>974.1098167849517</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.98011088371276789</v>
+        <v>0.97410981678495168</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -15678,11 +17431,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>932.33346939086857</v>
+        <v>936.46829151639736</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.93233346939086859</v>
+        <v>0.93646829151639732</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -15718,11 +17471,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1299.1206645965563</v>
+        <v>1298.1595280123681</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.2991206645965563</v>
+        <v>1.2981595280123681</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -15757,12 +17510,12 @@
         <v>2761.2454891204802</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>1056.9455623626698</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
+        <v>1042.6518204165436</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>1.0569455623626698</v>
+        <v>1.0426518204165436</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -15797,12 +17550,12 @@
         <v>2768.0523395538298</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>1032.2718620300284</v>
+        <f t="shared" si="2"/>
+        <v>1020.7783462954492</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>1.0322718620300284</v>
+        <v>1.0207783462954492</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -15837,12 +17590,21 @@
         <v>2733.7303161620998</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>1019.2382335662832</v>
+        <f t="shared" si="2"/>
+        <v>1020.5044033480618</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>1.0192382335662831</v>
+        <v>1.0205044033480619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <f xml:space="preserve"> ('10_trees'!E71)</f>
+        <v>829.31511425504482</v>
       </c>
     </row>
   </sheetData>
@@ -15878,8 +17640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABF61A6-957F-4688-B968-542023E74E0B}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15905,6 +17667,9 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
@@ -15924,19 +17689,22 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>0.86496281623840321</v>
+        <v>0.86730568432340405</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>1.3841755390167223</v>
+        <v>1.3906909706545802</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>0.85591793060302679</v>
+        <v>0.86571304821500561</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>0.95350432395934903</v>
+        <v>0.96034185909757375</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -15964,19 +17732,22 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>0.9600365161895742</v>
+        <v>0.96578495525846197</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>1.4327435493469223</v>
+        <v>1.438511538739297</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>0.87827873229980391</v>
+        <v>0.88546745800504467</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>0.97048735618591142</v>
+        <v>0.97926442646512735</v>
+      </c>
+      <c r="H4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N4">
         <v>500</v>
@@ -16004,19 +17775,22 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>1.1946113109588612</v>
+        <v>1.1978613617373439</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>1.572401523590087</v>
+        <v>1.571179795498941</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>0.97318983078002885</v>
+        <v>0.95792334103116761</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>1.0273208618164054</v>
+        <v>1.0322558166933991</v>
+      </c>
+      <c r="H5">
+        <v>1.4</v>
       </c>
       <c r="N5">
         <v>1600</v>
@@ -16062,6 +17836,9 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" t="s">
         <v>20</v>
       </c>
@@ -16084,24 +17861,27 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>0.85087633132934537</v>
+        <v>0.8652540924502351</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>1.872435092926017</v>
+        <v>1.8720018150759596</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
-        <v>0.8593347072601315</v>
+        <v>0.8660175087405183</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>0.94405245780944735</v>
+        <v>0.95235888981351613</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
-        <v>2.4498009681701616</v>
+        <v>2.4398950817538236</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -16134,24 +17914,27 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>0.96949672698974543</v>
+        <v>0.96597759747037615</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>1.7317235469818111</v>
+        <v>1.714649367566202</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
-        <v>0.89352536201477006</v>
+        <v>0.88646523975858482</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>0.9623456001281725</v>
+        <v>0.96091644787320873</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
-        <v>2.4569566249847359</v>
+        <v>2.4510983707858012</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
       </c>
       <c r="N10">
         <v>500</v>
@@ -16184,24 +17967,27 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>1.1862094402313219</v>
+        <v>1.1898700478030177</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>1.7273716926574703</v>
+        <v>1.7271243812991122</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
-        <v>0.96819901466369518</v>
+        <v>0.97352521442899398</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>0.9641041755676264</v>
+        <v>0.96389262699613321</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
-        <v>2.5411140918731645</v>
+        <v>2.5166174652529651</v>
+      </c>
+      <c r="H11">
+        <v>1.3</v>
       </c>
       <c r="N11">
         <v>1600</v>
@@ -16249,6 +18035,9 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
       <c r="O14" t="s">
         <v>20</v>
       </c>
@@ -16268,19 +18057,22 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
-        <v>0.85723400115966741</v>
+        <v>0.86495845341214916</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L54:'10_trees'!L57)</f>
-        <v>1.7316727638244627</v>
+        <v>1.7435621502352694</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
-        <v>0.85581731796264615</v>
+        <v>0.86510794186124595</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L66:'10_trees'!L69)</f>
-        <v>0.95672941207885653</v>
+        <v>0.9613243820620514</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -16308,19 +18100,22 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
-        <v>0.96969509124755782</v>
+        <v>0.96412031673917553</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L54:'500_trees'!L57)</f>
-        <v>1.7063486576080318</v>
+        <v>1.7144164326144196</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
-        <v>0.88257217407226551</v>
+        <v>0.88843863033780834</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L66:'500_trees'!L69)</f>
-        <v>0.9730439186096177</v>
+        <v>0.97630469822416022</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="N16">
         <v>500</v>
@@ -16348,19 +18143,22 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
-        <v>1.1940004825592028</v>
+        <v>1.1910795452548002</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L54:'1600_trees'!L57)</f>
-        <v>1.7183885574340803</v>
+        <v>1.7201470615817041</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
-        <v>0.93233346939086859</v>
+        <v>0.93646829151639732</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L66:'1600_trees'!L69)</f>
-        <v>1.0192382335662831</v>
+        <v>1.0205044033480619</v>
+      </c>
+      <c r="H17">
+        <v>1.2</v>
       </c>
       <c r="N17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/fraud/fraud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\fraud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FE0BDB-56CF-4519-8763-25783BA94003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8A119D-48AA-400D-B6C3-AAE0B6C60361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="912" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
+    <workbookView xWindow="-10176" yWindow="2784" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{947C17DB-3EA7-45D2-8F6C-6F422E1E9887}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="33">
   <si>
     <t>query size</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2137,13 +2140,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86730568432340405</c:v>
+                  <c:v>0.86558521378274045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96578495525846197</c:v>
+                  <c:v>0.96602118599648479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1978613617373439</c:v>
+                  <c:v>1.1979404746317386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,13 +2264,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.3906909706545802</c:v>
+                  <c:v>1.3891521750711917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.438511538739297</c:v>
+                  <c:v>1.4348248301767825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.571179795498941</c:v>
+                  <c:v>1.5706623851084238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,13 +2388,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86571304821500561</c:v>
+                  <c:v>0.86606443512673459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88546745800504467</c:v>
+                  <c:v>0.88498437988991818</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95792334103116761</c:v>
+                  <c:v>0.95501435387368272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,13 +2512,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96034185909757375</c:v>
+                  <c:v>0.97529280770058679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97926442646512735</c:v>
+                  <c:v>0.99395549881691969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0322558166933991</c:v>
+                  <c:v>1.0468677340769297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2808,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$2</c15:sqref>
@@ -2865,7 +2868,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2887,7 +2890,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$3:$A$5</c15:sqref>
@@ -2911,7 +2914,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$3:$G$5</c15:sqref>
@@ -2924,7 +2927,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-AC0B-4521-B4A8-D8D7CBBA9FF8}"/>
                   </c:ext>
@@ -3300,13 +3303,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8652540924502351</c:v>
+                  <c:v>0.8655632792734631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96597759747037615</c:v>
+                  <c:v>0.9661592303537847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1898700478030177</c:v>
+                  <c:v>1.1898182688974857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,13 +3427,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8720018150759596</c:v>
+                  <c:v>1.8721326648020196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.714649367566202</c:v>
+                  <c:v>1.7143031417154797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7271243812991122</c:v>
+                  <c:v>1.7264350711130627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,13 +3551,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8660175087405183</c:v>
+                  <c:v>0.86579383003945432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88646523975858482</c:v>
+                  <c:v>0.88534701454873166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97352521442899398</c:v>
+                  <c:v>0.97329867470498077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3672,13 +3675,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.95235888981351613</c:v>
+                  <c:v>0.96785820114846277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96091644787320873</c:v>
+                  <c:v>0.97630394089455674</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96389262699613321</c:v>
+                  <c:v>0.97929776299233473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,13 +3799,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4398950817538236</c:v>
+                  <c:v>2.4390901385569097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4510983707858012</c:v>
+                  <c:v>2.4510730563425498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5166174652529651</c:v>
+                  <c:v>2.51380146134133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4455,13 +4458,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86495845341214916</c:v>
+                  <c:v>0.86535537827248654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96412031673917553</c:v>
+                  <c:v>0.96468151200051377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1910795452548002</c:v>
+                  <c:v>1.1908010302805425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,13 +4582,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.7435621502352694</c:v>
+                  <c:v>1.7413863002085217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7144164326144196</c:v>
+                  <c:v>1.7119659243845469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7201470615817041</c:v>
+                  <c:v>1.7200144587778565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,13 +4706,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86510794186124595</c:v>
+                  <c:v>0.86516154396767697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88843863033780834</c:v>
+                  <c:v>0.88856423485512814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93646829151639732</c:v>
+                  <c:v>0.93607080567116818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4827,13 +4830,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.9613243820620514</c:v>
+                  <c:v>0.97579730141396581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97630469822416022</c:v>
+                  <c:v>0.99111593353981975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205044033480619</c:v>
+                  <c:v>1.0352927504801275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,7 +5126,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$14</c15:sqref>
@@ -5183,7 +5186,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -5205,7 +5208,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -5229,7 +5232,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -5242,7 +5245,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B5A7-4D1A-B28F-AD91B766D540}"/>
                   </c:ext>
@@ -9213,8 +9216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FE2DD4-240D-4401-AB6B-DDA24FF001C0}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9292,12 +9295,12 @@
         <v>162901.70383453299</v>
       </c>
       <c r="K2">
-        <f>SUM($E$71,G2,H2)</f>
-        <v>3121.0564854098284</v>
+        <f>SUM($E$71,G2,$H$71)</f>
+        <v>3119.3744002603999</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>3.1210564854098286</v>
+        <v>3.1193744002604</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -9332,12 +9335,12 @@
         <v>4464.9691581726001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
-        <v>917.50137829313076</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,$H$71)</f>
+        <v>917.54615891213496</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>0.91750137829313072</v>
+        <v>0.91754615891213498</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -9373,11 +9376,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>874.26488422879959</v>
+        <v>873.50142586464949</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.87426488422879955</v>
+        <v>0.87350142586464952</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -9413,11 +9416,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>867.30568432340408</v>
+        <v>865.58521378274042</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.86730568432340405</v>
+        <v>0.86558521378274045</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -9453,11 +9456,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>7595.1394321871721</v>
+        <v>7593.5539065622797</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>7.5951394321871719</v>
+        <v>7.5935539065622795</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -9493,11 +9496,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1681.6546204043359</v>
+        <v>1678.9895354532716</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.6816546204043359</v>
+        <v>1.6789895354532716</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -9533,11 +9536,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1400.2060177279443</v>
+        <v>1400.2488909983156</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.4002060177279443</v>
+        <v>1.4002488909983155</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -9573,11 +9576,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1390.6909706545803</v>
+        <v>1389.1521750711918</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.3906909706545802</v>
+        <v>1.3891521750711917</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -9613,11 +9616,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1016.3952591372467</v>
+        <v>1004.1197596811777</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.0163952591372467</v>
+        <v>1.0041197596811777</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -9653,11 +9656,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>903.55246090421463</v>
+        <v>890.51306832070418</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0.90355246090421459</v>
+        <v>0.8905130683207042</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -9693,11 +9696,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>896.7568161440829</v>
+        <v>884.94170296425898</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0.89675681614408287</v>
+        <v>0.884941702964259</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -9733,11 +9736,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>883.46045040616764</v>
+        <v>881.93619835610457</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.88346045040616761</v>
+        <v>0.88193619835610459</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -9773,11 +9776,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1023.0411770297029</v>
+        <v>1022.8339492105968</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.023041177029703</v>
+        <v>1.0228339492105967</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -9813,11 +9816,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>882.25762867460048</v>
+        <v>882.13217842812617</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.88225762867460045</v>
+        <v>0.88213217842812619</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -9853,11 +9856,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>868.72952007779861</v>
+        <v>868.57879746193964</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.86872952007779858</v>
+        <v>0.86857879746193967</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9893,11 +9896,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>865.71304821500564</v>
+        <v>866.06443512673457</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.86571304821500561</v>
+        <v>0.86606443512673459</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9933,11 +9936,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>4313.3358242464919</v>
+        <v>4328.2986937784599</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>4.3133358242464919</v>
+        <v>4.3282986937784598</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -9973,11 +9976,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>981.20253109464375</v>
+        <v>996.16015541787169</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.98120253109464373</v>
+        <v>0.99616015541787173</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10013,11 +10016,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>960.50517582425778</v>
+        <v>975.39270508522975</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.96050517582425776</v>
+        <v>0.97539270508522979</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10053,11 +10056,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>960.34185909757377</v>
+        <v>975.29280770058676</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.96034185909757375</v>
+        <v>0.97529280770058679</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10093,11 +10096,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1404.1816475344635</v>
+        <v>1403.0851184153084</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4041816475344635</v>
+        <v>1.4030851184153084</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10133,11 +10136,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>924.05002140531315</v>
+        <v>922.14382279152937</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.92405002140531312</v>
+        <v>0.9221438227915294</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10173,11 +10176,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>874.39053081998622</v>
+        <v>873.50452530617792</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.87439053081998619</v>
+        <v>0.87350452530617795</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -10213,11 +10216,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>865.25409245023513</v>
+        <v>865.56327927346308</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0.8652540924502351</v>
+        <v>0.8655632792734631</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -10253,11 +10256,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>4934.2395546389535</v>
+        <v>4934.0714274668198</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>4.9342395546389533</v>
+        <v>4.9340714274668196</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -10293,11 +10296,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1946.0055115176176</v>
+        <v>1944.4984256052496</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.9460055115176176</v>
+        <v>1.9444984256052498</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -10333,11 +10336,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2187.3037102175676</v>
+        <v>2187.2826873087397</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.1873037102175679</v>
+        <v>2.1872826873087399</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -10373,11 +10376,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1872.0018150759597</v>
+        <v>1872.1326648020195</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.8720018150759596</v>
+        <v>1.8721326648020196</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -10413,11 +10416,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>1746.9128849459621</v>
+        <v>1734.1975032114506</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>1.7469128849459621</v>
+        <v>1.7341975032114505</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -10453,11 +10456,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1736.2534286929103</v>
+        <v>1723.7843333506107</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>1.7362534286929103</v>
+        <v>1.7237843333506107</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -10493,11 +10496,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1730.1277401400539</v>
+        <v>1717.6855860971928</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.7301277401400539</v>
+        <v>1.7176855860971927</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -10533,11 +10536,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1738.78781818876</v>
+        <v>1728.2444297098637</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1.7387878181887599</v>
+        <v>1.7282444297098636</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -10573,11 +10576,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1020.7645180178621</v>
+        <v>1020.5236731791027</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.0207645180178622</v>
+        <v>1.0205236731791028</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -10613,11 +10616,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>882.09621929654861</v>
+        <v>882.28786576027937</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.88209621929654858</v>
+        <v>0.8822878657602794</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10653,11 +10656,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>868.86112713346279</v>
+        <v>868.72137177224238</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.86886112713346275</v>
+        <v>0.8687213717722424</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -10693,11 +10696,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>866.01750874051834</v>
+        <v>865.79383003945429</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.8660175087405183</v>
+        <v>0.86579383003945432</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -10733,11 +10736,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1317.9609062624904</v>
+        <v>1333.3348094248295</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.3179609062624904</v>
+        <v>1.3333348094248294</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -10773,11 +10776,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>979.69834827909222</v>
+        <v>995.14830696816477</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0.97969834827909219</v>
+        <v>0.99514830696816481</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -10813,11 +10816,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>960.98964237699226</v>
+        <v>976.48132431740771</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.96098964237699225</v>
+        <v>0.97648132431740775</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -10853,11 +10856,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>952.35888981351616</v>
+        <v>967.85820114846274</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.95235888981351613</v>
+        <v>0.96785820114846277</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -10893,11 +10896,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>24675.799298520167</v>
+        <v>24676.377421500623</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>24.675799298520168</v>
+        <v>24.676377421500625</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -10933,11 +10936,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2455.1660301638512</v>
+        <v>2455.8836280130799</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.4551660301638512</v>
+        <v>2.4558836280130798</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -10973,11 +10976,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2396.8054535342162</v>
+        <v>2394.1940127634498</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.3968054535342165</v>
+        <v>2.39419401276345</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11013,11 +11016,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2390.6080009890493</v>
+        <v>2390.1602088236295</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.3906080009890491</v>
+        <v>2.3901602088236298</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11053,11 +11056,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>5508.3798649264227</v>
+        <v>5505.7462512277998</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>5.5083798649264226</v>
+        <v>5.5057462512277997</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11093,11 +11096,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2514.629769558996</v>
+        <v>2512.2836886667696</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>2.5146297695589959</v>
+        <v>2.5122836886667699</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11133,11 +11136,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2439.8950817538234</v>
+        <v>2439.0901385569096</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.4398950817538236</v>
+        <v>2.4390901385569097</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11173,11 +11176,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2443.1192161990102</v>
+        <v>2443.3854876779997</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.4431192161990101</v>
+        <v>2.4433854876779999</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -11213,11 +11216,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1420.2880146456694</v>
+        <v>1419.2816077494147</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4202880146456693</v>
+        <v>1.4192816077494146</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -11253,11 +11256,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>920.19884609708572</v>
+        <v>920.44580567116816</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>0.92019884609708569</v>
+        <v>0.92044580567116818</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -11293,11 +11296,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>873.80139851102626</v>
+        <v>873.25013268227656</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>0.87380139851102623</v>
+        <v>0.87325013268227658</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -11333,11 +11336,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>864.9584534121492</v>
+        <v>865.35537827248652</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>0.86495845341214916</v>
+        <v>0.86535537827248654</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -11373,11 +11376,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2369.3472626162429</v>
+        <v>2369.0701781534599</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.3693472626162428</v>
+        <v>2.3690701781534598</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -11413,11 +11416,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1791.1276104403469</v>
+        <v>1791.1366282724857</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.7911276104403469</v>
+        <v>1.7911366282724857</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -11453,11 +11456,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2112.813163037385</v>
+        <v>2112.9480658792895</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.112813163037385</v>
+        <v>2.1129480658792894</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -11493,11 +11496,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1743.5621502352694</v>
+        <v>1741.3863002085216</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7435621502352694</v>
+        <v>1.7413863002085217</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -11533,11 +11536,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>946.63136028775966</v>
+        <v>939.83615029091914</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>0.94663136028775963</v>
+        <v>0.93983615029091916</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -11573,11 +11576,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>909.5906498385408</v>
+        <v>896.31593811745722</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>0.90959064983854077</v>
+        <v>0.89631593811745724</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -11613,11 +11616,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>902.74636768827213</v>
+        <v>888.07070839638777</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.9027463676882721</v>
+        <v>0.8880707083963878</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -11653,11 +11656,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>900.4186871005038</v>
+        <v>894.83988869423945</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>0.90041868710050377</v>
+        <v>0.89483988869423947</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -11693,11 +11696,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1022.1206428957918</v>
+        <v>1021.6058551096447</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.0221206428957919</v>
+        <v>1.0216058551096447</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -11733,11 +11736,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>882.51464390287174</v>
+        <v>882.39539253945418</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.88251464390287171</v>
+        <v>0.8823953925394542</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -11773,11 +11776,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>869.07284283170486</v>
+        <v>868.61479866738387</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.86907284283170483</v>
+        <v>0.86861479866738389</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -11813,11 +11816,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>865.10794186124599</v>
+        <v>865.16154396767695</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.86510794186124595</v>
+        <v>0.86516154396767697</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -11853,11 +11856,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1232.0102932406398</v>
+        <v>1246.8811332010746</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.2320102932406398</v>
+        <v>1.2468811332010745</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -11892,12 +11895,12 @@
         <v>2576.19309425354</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
-        <v>987.88135075101559</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,$H$71)</f>
+        <v>1002.7760325693607</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0.98788135075101557</v>
+        <v>1.0027760325693607</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -11933,11 +11936,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>961.32438206205143</v>
+        <v>975.79730141396578</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>0.9613243820620514</v>
+        <v>0.97579730141396581</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -11972,12 +11975,12 @@
         <v>2655.49826622009</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>1046.8441727114653</v>
+        <f>SUM($E$71,G69,$H$71)</f>
+        <v>978.79303086037669</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>1.0468441727114652</v>
+        <v>0.97879303086037672</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -11988,9 +11991,28 @@
         <f>AVERAGE(E2:E69,'500_trees'!E2:'500_trees'!E69,'1600_trees'!E2:'1600_trees'!E69)</f>
         <v>829.31511425504482</v>
       </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <f>AVERAGE(H2:H69,'500_trees'!H2:H69,'1600_trees'!H2:H69)</f>
+        <v>28.563934213974889</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L69">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12002,7 +12024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G69">
+  <conditionalFormatting sqref="H2:H69">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12022,8 +12044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17AADB-7A1D-4563-8585-13F012E6BC7D}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12101,12 +12123,12 @@
         <v>10921.4990139007</v>
       </c>
       <c r="K2">
-        <f>SUM($E$71,G2,H2)</f>
-        <v>1428.4178497744538</v>
+        <f>SUM($E$71,G2,$H$71)</f>
+        <v>1428.5937606119637</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>1.4284178497744537</v>
+        <v>1.4285937606119636</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -12141,12 +12163,12 @@
         <v>5130.0625801086398</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
-        <v>997.73018383512272</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,$H$71)</f>
+        <v>995.47875511879977</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>0.99773018383512269</v>
+        <v>0.9954787551187998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -12182,11 +12204,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>975.97353481778828</v>
+        <v>976.28653633828173</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0.97597353481778826</v>
+        <v>0.97628653633828177</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -12222,11 +12244,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>965.78495525846199</v>
+        <v>966.02118599648475</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.96578495525846197</v>
+        <v>0.96602118599648479</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -12262,11 +12284,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2120.038199658487</v>
+        <v>2117.8516207956795</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2.1200381996584872</v>
+        <v>2.1178516207956797</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -12302,11 +12324,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1477.5735619021393</v>
+        <v>1477.1727381968026</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.4775735619021393</v>
+        <v>1.4771727381968025</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -12342,11 +12364,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1457.1737530184716</v>
+        <v>1457.0962249063966</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.4571737530184716</v>
+        <v>1.4570962249063966</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -12382,11 +12404,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1438.5115387392971</v>
+        <v>1434.8248301767826</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.438511538739297</v>
+        <v>1.4348248301767825</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -12422,11 +12444,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1189.5689251376127</v>
+        <v>1177.0516692423346</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.1895689251376127</v>
+        <v>1.1770516692423345</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -12462,11 +12484,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1103.6125900698632</v>
+        <v>1090.3898535990236</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.1036125900698632</v>
+        <v>1.0903898535990235</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -12502,11 +12524,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1097.1938850832919</v>
+        <v>1083.7539492868907</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.0971938850832919</v>
+        <v>1.0837539492868906</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -12542,11 +12564,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1094.9148418856598</v>
+        <v>1089.4304572367196</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.0949148418856598</v>
+        <v>1.0894304572367195</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -12582,11 +12604,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1046.7063667727443</v>
+        <v>1046.4156924509527</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.0467063667727443</v>
+        <v>1.0464156924509527</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -12622,11 +12644,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>912.3534443331697</v>
+        <v>911.82315933938105</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.91235344433316967</v>
+        <v>0.91182315933938107</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -12662,11 +12684,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>898.10435795316482</v>
+        <v>897.80176270241816</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.89810435795316479</v>
+        <v>0.89780176270241818</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -12702,11 +12724,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>885.4674580050447</v>
+        <v>884.98437988991816</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.88546745800504467</v>
+        <v>0.88498437988991818</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -12742,11 +12764,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1423.1483223391506</v>
+        <v>1437.9869757914066</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1.4231483223391506</v>
+        <v>1.4379869757914066</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -12782,11 +12804,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>999.03051876554264</v>
+        <v>1013.8357936167247</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0.99903051876554261</v>
+        <v>1.0138357936167246</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -12822,11 +12844,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>979.26442646512737</v>
+        <v>993.95549881691966</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0.97926442646512735</v>
+        <v>0.99395549881691969</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -12862,11 +12884,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>979.5209648562402</v>
+        <v>994.22205078835475</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0.97952096485624018</v>
+        <v>0.99422205078835479</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -12902,11 +12924,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1408.3015205813379</v>
+        <v>1408.5849581980226</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4083015205813378</v>
+        <v>1.4085849581980225</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -12942,11 +12964,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>996.19596027860348</v>
+        <v>996.46604645485866</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.99619596027860347</v>
+        <v>0.9964660464548587</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -12982,11 +13004,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>973.34973835477581</v>
+        <v>971.43591034646067</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.97334973835477578</v>
+        <v>0.97143591034646071</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13022,11 +13044,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>965.97759747037617</v>
+        <v>966.15923035378466</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0.96597759747037615</v>
+        <v>0.9661592303537847</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -13062,11 +13084,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>2169.9883224917385</v>
+        <v>2166.9529734873295</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2.1699883224917387</v>
+        <v>2.1669529734873296</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -13102,11 +13124,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1997.1954109621909</v>
+        <v>1997.2044287943297</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.997195410962191</v>
+        <v>1.9972044287943298</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13142,11 +13164,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2224.3992569399752</v>
+        <v>2224.4943438791697</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.2243992569399751</v>
+        <v>2.2244943438791696</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -13182,11 +13204,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1714.649367566202</v>
+        <v>1714.3031417154796</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.714649367566202</v>
+        <v>1.7143031417154797</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13222,11 +13244,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2053.4149887514986</v>
+        <v>2040.8343135141797</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>2.0534149887514985</v>
+        <v>2.0408343135141798</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13262,11 +13284,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1988.6969807101157</v>
+        <v>1975.5529223703795</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>1.9886969807101158</v>
+        <v>1.9755529223703796</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13302,11 +13324,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1971.0084679079912</v>
+        <v>1958.9406310343195</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>1.9710084679079913</v>
+        <v>1.9589406310343196</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13342,11 +13364,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1974.419999356355</v>
+        <v>1964.2452060007497</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>1.9744199993563549</v>
+        <v>1.9642452060007498</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13382,11 +13404,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1051.1881592226955</v>
+        <v>1051.0803519510746</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.0511881592226955</v>
+        <v>1.0510803519510745</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13422,11 +13444,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>910.65423511991276</v>
+        <v>910.65586197609969</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.91065423511991272</v>
+        <v>0.91065586197609971</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -13462,11 +13484,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>901.19020962247635</v>
+        <v>897.26913559670527</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.90119020962247631</v>
+        <v>0.89726913559670529</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13502,11 +13524,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>886.46523975858486</v>
+        <v>885.34701454873164</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.88646523975858482</v>
+        <v>0.88534701454873166</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13542,11 +13564,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1234.2015984011628</v>
+        <v>1249.5564280771737</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.2342015984011627</v>
+        <v>1.2495564280771736</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13582,11 +13604,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>997.44360470304264</v>
+        <v>1012.9839240335947</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0.99744360470304261</v>
+        <v>1.0129839240335947</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13622,11 +13644,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>962.51146816739742</v>
+        <v>977.93043244118678</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.96251146816739741</v>
+        <v>0.97793043244118683</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -13662,11 +13684,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>960.91644787320877</v>
+        <v>976.30394089455672</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.96091644787320873</v>
+        <v>0.97630394089455674</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -13702,11 +13724,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>5336.5031959963753</v>
+        <v>5335.15728104348</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>5.3365031959963751</v>
+        <v>5.3351572810434797</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -13742,11 +13764,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2750.1081707430776</v>
+        <v>2749.2114363932096</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.7501081707430775</v>
+        <v>2.7492114363932099</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -13782,11 +13804,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2452.5269749117747</v>
+        <v>2452.6087104105395</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.4525269749117746</v>
+        <v>2.4526087104105394</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -13822,11 +13844,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2432.7959301424871</v>
+        <v>2433.5018454813398</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.4327959301424871</v>
+        <v>2.4335018454813397</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -13862,11 +13884,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>7666.0823109103185</v>
+        <v>7662.5188647531995</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>7.6660823109103182</v>
+        <v>7.6625188647532001</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -13902,11 +13924,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2781.956124539463</v>
+        <v>2782.5282870554397</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>2.7819561245394628</v>
+        <v>2.78252828705544</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -13942,11 +13964,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2482.6001408053285</v>
+        <v>2482.9880057596597</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.4826001408053284</v>
+        <v>2.4829880057596596</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -13982,11 +14004,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2451.0983707858013</v>
+        <v>2451.0730563425495</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.4510983707858012</v>
+        <v>2.4510730563425498</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14022,11 +14044,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1401.7490627718903</v>
+        <v>1401.8322287821297</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4017490627718903</v>
+        <v>1.4018322287821297</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -14062,11 +14084,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>997.44288944730545</v>
+        <v>995.54646599526473</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>0.99744288944730541</v>
+        <v>0.99554646599526475</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -14102,11 +14124,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>970.36974453458549</v>
+        <v>970.71278679604575</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>0.97036974453458547</v>
+        <v>0.97071278679604578</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -14142,11 +14164,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>964.12031673917556</v>
+        <v>964.68151200051375</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>0.96412031673917553</v>
+        <v>0.96468151200051377</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -14182,11 +14204,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2087.6170875979315</v>
+        <v>2086.9230090402998</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.0876170875979314</v>
+        <v>2.0869230090402997</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -14222,11 +14244,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1797.2165825320217</v>
+        <v>1795.8058177256107</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.7972165825320217</v>
+        <v>1.7958058177256107</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -14262,11 +14284,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2102.899003262607</v>
+        <v>2100.3886519693797</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.1028990032626069</v>
+        <v>2.1003886519693795</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -14302,11 +14324,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1714.4164326144196</v>
+        <v>1711.9659243845467</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7144164326144196</v>
+        <v>1.7119659243845469</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -14342,11 +14364,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1285.5667355013825</v>
+        <v>1286.0645114206795</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>1.2855667355013825</v>
+        <v>1.2860645114206795</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -14382,11 +14404,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1247.0540287447902</v>
+        <v>1234.6462069773197</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>1.2470540287447902</v>
+        <v>1.2346462069773196</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -14422,11 +14444,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1220.564294095132</v>
+        <v>1209.0956031107426</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>1.220564294095132</v>
+        <v>1.2090956031107425</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -14462,11 +14484,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>1213.1459000063871</v>
+        <v>1207.9168616556647</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>1.2131459000063871</v>
+        <v>1.2079168616556646</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -14502,11 +14524,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1049.6362926913232</v>
+        <v>1048.6322699808597</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.0496362926913232</v>
+        <v>1.0486322699808597</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -14542,11 +14564,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>911.41288303861404</v>
+        <v>910.81870186562617</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.91141288303861401</v>
+        <v>0.91081870186562619</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -14582,11 +14604,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>897.29588055143142</v>
+        <v>897.1990405344493</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.89729588055143139</v>
+        <v>0.89719904053444932</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -14622,11 +14644,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>888.43863033780838</v>
+        <v>888.56423485512812</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.88843863033780834</v>
+        <v>0.88856423485512814</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -14662,11 +14684,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1249.3998291445707</v>
+        <v>1264.3388568186285</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.2493998291445707</v>
+        <v>1.2643388568186285</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -14701,12 +14723,12 @@
         <v>2641.0562992095902</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
-        <v>998.44543957242684</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,$H$71)</f>
+        <v>1013.2998286509037</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0.99844543957242682</v>
+        <v>1.0132998286509036</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -14742,11 +14764,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>976.30469822416023</v>
+        <v>991.11593353981971</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>0.97630469822416022</v>
+        <v>0.99111593353981975</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -14782,11 +14804,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>977.90114902982452</v>
+        <v>992.71166908974669</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>0.9779011490298245</v>
+        <v>0.99271166908974673</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -14796,6 +14818,13 @@
       <c r="E71">
         <f xml:space="preserve"> ('10_trees'!E71)</f>
         <v>829.31511425504482</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <f>'10_trees'!H71</f>
+        <v>28.563934213974889</v>
       </c>
     </row>
   </sheetData>
@@ -14831,7 +14860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607216-E5DB-4978-9B0F-86A2BC3AF938}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K69"/>
     </sheetView>
   </sheetViews>
@@ -14910,12 +14939,12 @@
         <v>11783.065319061199</v>
       </c>
       <c r="K2">
-        <f>SUM($E$71,G2,H2)</f>
-        <v>1469.6437599612211</v>
+        <f>SUM($E$71,G2,$H$71)</f>
+        <v>1469.8585330271246</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>1.4696437599612211</v>
+        <v>1.4698585330271245</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14950,12 +14979,12 @@
         <v>6694.7731971740704</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,H3)</f>
-        <v>1223.4198334170319</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$71,G3,$H$71)</f>
+        <v>1223.2879458689217</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L69" si="1">PRODUCT(K3,0.001)</f>
-        <v>1.2234198334170319</v>
+        <v>1.2232879458689216</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14991,11 +15020,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1201.2724163485498</v>
+        <v>1201.3281642221925</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.2012724163485498</v>
+        <v>1.2013281642221925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -15031,11 +15060,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1197.8613617373439</v>
+        <v>1197.9404746317387</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>1.1978613617373439</v>
+        <v>1.1979404746317386</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -15071,11 +15100,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2050.2881290865812</v>
+        <v>2047.2296534799996</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2.0502881290865811</v>
+        <v>2.0472296534799996</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -15111,11 +15140,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1650.768208737466</v>
+        <v>1647.5273429178715</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>1.650768208737466</v>
+        <v>1.6475273429178714</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -15151,11 +15180,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1600.3269436312646</v>
+        <v>1600.1085101389406</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.6003269436312646</v>
+        <v>1.6001085101389405</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -15191,11 +15220,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1571.1797954989411</v>
+        <v>1570.6623851084237</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.571179795498941</v>
+        <v>1.5706623851084238</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -15231,11 +15260,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1714.0073063326809</v>
+        <v>1701.1514960550785</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>1.7140073063326808</v>
+        <v>1.7011514960550784</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -15271,11 +15300,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1554.8545601321198</v>
+        <v>1542.4078761362557</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.5548545601321198</v>
+        <v>1.5424078761362559</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -15311,11 +15340,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1535.4210617495514</v>
+        <v>1523.1906234049325</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>1.5354210617495514</v>
+        <v>1.5231906234049326</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -15351,11 +15380,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1530.5728199435212</v>
+        <v>1524.7987567209725</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>1.5305728199435211</v>
+        <v>1.5247987567209726</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -15391,11 +15420,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1118.0717232180571</v>
+        <v>1116.5682135843756</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1.118071723218057</v>
+        <v>1.1165682135843755</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -15431,11 +15460,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>994.65529942044941</v>
+        <v>993.56663811440478</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.99465529942044939</v>
+        <v>0.99356663811440482</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -15471,11 +15500,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>973.54142689237312</v>
+        <v>973.13392746682177</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0.97354142689237311</v>
+        <v>0.97313392746682181</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -15511,11 +15540,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>957.92334103116764</v>
+        <v>955.01435387368269</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0.95792334103116761</v>
+        <v>0.95501435387368272</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -15551,11 +15580,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1471.0878612948395</v>
+        <v>1485.8094512247567</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1.4710878612948395</v>
+        <v>1.4858094512247566</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -15591,11 +15620,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1051.8359425021142</v>
+        <v>1066.4218722605226</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1.0518359425021142</v>
+        <v>1.0664218722605225</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -15631,11 +15660,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1032.9832317782377</v>
+        <v>1047.6428328775887</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1.0329832317782377</v>
+        <v>1.0476428328775886</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -15671,11 +15700,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1032.2558166933991</v>
+        <v>1046.8677340769298</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>1.0322558166933991</v>
+        <v>1.0468677340769297</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -15711,11 +15740,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1401.2359859896637</v>
+        <v>1400.2779780649666</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>1.4012359859896637</v>
+        <v>1.4002779780649666</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -15751,11 +15780,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1220.2152492953276</v>
+        <v>1219.9524699472906</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>1.2202152492953275</v>
+        <v>1.2199524699472906</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -15791,11 +15820,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>1195.9914448214511</v>
+        <v>1194.8965846323497</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>1.195991444821451</v>
+        <v>1.1948965846323496</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -15831,11 +15860,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1189.8700478030178</v>
+        <v>1189.8182688974857</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>1.1898700478030177</v>
+        <v>1.1898182688974857</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -15871,11 +15900,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>2112.0929005099188</v>
+        <v>2112.1677218698896</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>2.1120929005099187</v>
+        <v>2.1121677218698895</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15911,11 +15940,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1961.962390179724</v>
+        <v>1961.8369399332496</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>1.9619623901797241</v>
+        <v>1.9618369399332496</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15951,11 +15980,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>2316.9116260958608</v>
+        <v>2315.1453791880094</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>2.3169116260958607</v>
+        <v>2.3151453791880097</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15991,11 +16020,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1727.1243812991122</v>
+        <v>1726.4350711130626</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>1.7271243812991122</v>
+        <v>1.7264350711130627</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -16031,11 +16060,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2640.1015999270403</v>
+        <v>2626.7756282114497</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>2.6401015999270405</v>
+        <v>2.6267756282114498</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -16071,11 +16100,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>2520.5141785097985</v>
+        <v>2507.5672923349794</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>2.5205141785097984</v>
+        <v>2.5075672923349792</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -16111,11 +16140,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2373.0484726382188</v>
+        <v>2373.7946807169396</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>2.3730484726382186</v>
+        <v>2.3737946807169399</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -16151,11 +16180,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>2466.4706470919582</v>
+        <v>2454.2135058664799</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>2.4664706470919584</v>
+        <v>2.45421350586648</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -16191,11 +16220,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1120.1707603884677</v>
+        <v>1119.5343791269786</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>1.1201707603884676</v>
+        <v>1.1195343791269785</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -16231,11 +16260,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>995.98710560331131</v>
+        <v>995.59558022255976</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0.99598710560331127</v>
+        <v>0.99559558022255978</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -16271,11 +16300,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>976.85043835172382</v>
+        <v>976.24171364541075</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0.9768504383517238</v>
+        <v>0.97624171364541079</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -16311,11 +16340,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>973.52521442899399</v>
+        <v>973.29867470498073</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0.97352521442899398</v>
+        <v>0.97329867470498077</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -16351,11 +16380,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1243.862080807779</v>
+        <v>1259.1365634226327</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>1.2438620808077789</v>
+        <v>1.2591365634226326</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -16391,11 +16420,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>991.0179855776762</v>
+        <v>1006.4419566416267</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0.99101798557767617</v>
+        <v>1.0064419566416267</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -16431,11 +16460,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>966.66281246671383</v>
+        <v>982.12278473610877</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.96666281246671382</v>
+        <v>0.98212278473610881</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -16471,11 +16500,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>963.89262699613323</v>
+        <v>979.2977629923347</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>0.96389262699613321</v>
+        <v>0.97929776299233473</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -16511,11 +16540,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>8370.556283230866</v>
+        <v>8370.9994612955488</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>8.3705562832308669</v>
+        <v>8.3709994612955487</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -16551,11 +16580,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>3001.8257381869234</v>
+        <v>3000.6865321421092</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>3.0018257381869233</v>
+        <v>3.0006865321421095</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -16591,11 +16620,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2491.5441753817477</v>
+        <v>2491.7858897470896</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>2.4915441753817476</v>
+        <v>2.4917858897470895</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -16631,11 +16660,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2450.5726578188787</v>
+        <v>2450.8041201853193</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>2.4505726578188787</v>
+        <v>2.4508041201853192</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -16671,11 +16700,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>11482.476878399926</v>
+        <v>11482.75793183082</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>11.482476878399927</v>
+        <v>11.48275793183082</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -16711,11 +16740,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>3195.6211807680975</v>
+        <v>3192.19267952675</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>3.1956211807680974</v>
+        <v>3.1921926795267499</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -16751,11 +16780,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2570.6781628085109</v>
+        <v>2568.9517318033695</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.5706781628085111</v>
+        <v>2.5689517318033697</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -16791,11 +16820,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>2516.6174652529653</v>
+        <v>2513.8014613413297</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.5166174652529651</v>
+        <v>2.51380146134133</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -16831,11 +16860,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>1417.5967457247714</v>
+        <v>1415.6159220957286</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1.4175967457247713</v>
+        <v>1.4156159220957287</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -16871,11 +16900,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1216.9837238741848</v>
+        <v>1215.6549750589847</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>1.2169837238741847</v>
+        <v>1.2156549750589847</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -16911,11 +16940,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>1198.7673523379297</v>
+        <v>1198.6991225504396</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>1.1987673523379296</v>
+        <v>1.1986991225504395</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -16951,11 +16980,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>1191.0795452548002</v>
+        <v>1190.8010302805426</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>1.1910795452548002</v>
+        <v>1.1908010302805425</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -16991,11 +17020,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2078.3917190981838</v>
+        <v>2076.1963187479496</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>2.078391719098184</v>
+        <v>2.0761963187479497</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -17031,11 +17060,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1938.9673950625302</v>
+        <v>1938.6631308817296</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>1.9389673950625301</v>
+        <v>1.9386631308817297</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -17071,11 +17100,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2197.1642258120492</v>
+        <v>2196.7588721537095</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2.1971642258120494</v>
+        <v>2.1967588721537097</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -17111,11 +17140,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>1720.1470615817041</v>
+        <v>1720.0144587778566</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>1.7201470615817041</v>
+        <v>1.7200144587778565</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -17151,11 +17180,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>2203.0421974612163</v>
+        <v>2189.9010001444294</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>2.2030421974612162</v>
+        <v>2.1899010001444297</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -17191,11 +17220,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1961.1963512850657</v>
+        <v>1948.3388720774096</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>1.9611963512850656</v>
+        <v>1.9483388720774097</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -17231,11 +17260,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1646.5029003573391</v>
+        <v>1646.7410384439945</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>1.646502900357339</v>
+        <v>1.6467410384439944</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -17271,11 +17300,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>1871.2367298556262</v>
+        <v>1865.9344970011196</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>1.8712367298556263</v>
+        <v>1.8659344970011196</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -17311,11 +17340,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1117.7579643679596</v>
+        <v>1117.6592170023446</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>1.1177579643679596</v>
+        <v>1.1176592170023445</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -17351,11 +17380,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>993.89307522306194</v>
+        <v>993.29364884133372</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>0.99389307522306192</v>
+        <v>0.99329364884133375</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -17391,11 +17420,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>974.1098167849517</v>
+        <v>972.40508187050875</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>0.97410981678495168</v>
+        <v>0.97240508187050878</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -17431,11 +17460,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>936.46829151639736</v>
+        <v>936.07080567116816</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>0.93646829151639732</v>
+        <v>0.93607080567116818</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -17471,11 +17500,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>1298.1595280123681</v>
+        <v>1313.0694686197755</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>1.2981595280123681</v>
+        <v>1.3130694686197755</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -17510,12 +17539,12 @@
         <v>2761.2454891204802</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,H67)</f>
-        <v>1042.6518204165436</v>
+        <f t="shared" ref="K67:K69" si="2">SUM($E$71,G67,$H$71)</f>
+        <v>1057.3564826273446</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>1.0426518204165436</v>
+        <v>1.0573564826273445</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -17551,11 +17580,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>1020.7783462954492</v>
+        <v>1035.5449973368166</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>1.0207783462954492</v>
+        <v>1.0355449973368165</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -17591,11 +17620,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>1020.5044033480618</v>
+        <v>1035.2927504801276</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>1.0205044033480619</v>
+        <v>1.0352927504801275</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -17605,6 +17634,13 @@
       <c r="E71">
         <f xml:space="preserve"> ('10_trees'!E71)</f>
         <v>829.31511425504482</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <f>'10_trees'!H71</f>
+        <v>28.563934213974889</v>
       </c>
     </row>
   </sheetData>
@@ -17640,7 +17676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABF61A6-957F-4688-B968-542023E74E0B}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
@@ -17689,19 +17725,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L5)</f>
-        <v>0.86730568432340405</v>
+        <v>0.86558521378274045</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L6:'10_trees'!L9)</f>
-        <v>1.3906909706545802</v>
+        <v>1.3891521750711917</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L14:'10_trees'!L17)</f>
-        <v>0.86571304821500561</v>
+        <v>0.86606443512673459</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
-        <v>0.96034185909757375</v>
+        <v>0.97529280770058679</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -17732,19 +17768,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L5)</f>
-        <v>0.96578495525846197</v>
+        <v>0.96602118599648479</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L6:'500_trees'!L9)</f>
-        <v>1.438511538739297</v>
+        <v>1.4348248301767825</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L14:'500_trees'!L17)</f>
-        <v>0.88546745800504467</v>
+        <v>0.88498437988991818</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
-        <v>0.97926442646512735</v>
+        <v>0.99395549881691969</v>
       </c>
       <c r="H4">
         <v>1.1000000000000001</v>
@@ -17775,19 +17811,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L5)</f>
-        <v>1.1978613617373439</v>
+        <v>1.1979404746317386</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L6:'1600_trees'!L9)</f>
-        <v>1.571179795498941</v>
+        <v>1.5706623851084238</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L14:'1600_trees'!L17)</f>
-        <v>0.95792334103116761</v>
+        <v>0.95501435387368272</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
-        <v>1.0322558166933991</v>
+        <v>1.0468677340769297</v>
       </c>
       <c r="H5">
         <v>1.4</v>
@@ -17861,24 +17897,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L22:'10_trees'!L25)</f>
-        <v>0.8652540924502351</v>
+        <v>0.8655632792734631</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L29)</f>
-        <v>1.8720018150759596</v>
+        <v>1.8721326648020196</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L34:'10_trees'!L37)</f>
-        <v>0.8660175087405183</v>
+        <v>0.86579383003945432</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L41)</f>
-        <v>0.95235888981351613</v>
+        <v>0.96785820114846277</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L46:'10_trees'!L49)</f>
-        <v>2.4398950817538236</v>
+        <v>2.4390901385569097</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -17914,24 +17950,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L22:'500_trees'!L25)</f>
-        <v>0.96597759747037615</v>
+        <v>0.9661592303537847</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L29)</f>
-        <v>1.714649367566202</v>
+        <v>1.7143031417154797</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L34:'500_trees'!L37)</f>
-        <v>0.88646523975858482</v>
+        <v>0.88534701454873166</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L41)</f>
-        <v>0.96091644787320873</v>
+        <v>0.97630394089455674</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L46:'500_trees'!L49)</f>
-        <v>2.4510983707858012</v>
+        <v>2.4510730563425498</v>
       </c>
       <c r="H10">
         <v>1.1000000000000001</v>
@@ -17967,24 +18003,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L22:'1600_trees'!L25)</f>
-        <v>1.1898700478030177</v>
+        <v>1.1898182688974857</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L26:'1600_trees'!L29)</f>
-        <v>1.7271243812991122</v>
+        <v>1.7264350711130627</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L34:'1600_trees'!L37)</f>
-        <v>0.97352521442899398</v>
+        <v>0.97329867470498077</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L41)</f>
-        <v>0.96389262699613321</v>
+        <v>0.97929776299233473</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L46:'1600_trees'!L49)</f>
-        <v>2.5166174652529651</v>
+        <v>2.51380146134133</v>
       </c>
       <c r="H11">
         <v>1.3</v>
@@ -18057,19 +18093,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L53)</f>
-        <v>0.86495845341214916</v>
+        <v>0.86535537827248654</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L54:'10_trees'!L57)</f>
-        <v>1.7435621502352694</v>
+        <v>1.7413863002085217</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L62:'10_trees'!L65)</f>
-        <v>0.86510794186124595</v>
+        <v>0.86516154396767697</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L66:'10_trees'!L69)</f>
-        <v>0.9613243820620514</v>
+        <v>0.97579730141396581</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -18100,19 +18136,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L53)</f>
-        <v>0.96412031673917553</v>
+        <v>0.96468151200051377</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L54:'500_trees'!L57)</f>
-        <v>1.7144164326144196</v>
+        <v>1.7119659243845469</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L62:'500_trees'!L65)</f>
-        <v>0.88843863033780834</v>
+        <v>0.88856423485512814</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L66:'500_trees'!L69)</f>
-        <v>0.97630469822416022</v>
+        <v>0.99111593353981975</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -18143,19 +18179,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L53)</f>
-        <v>1.1910795452548002</v>
+        <v>1.1908010302805425</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L54:'1600_trees'!L57)</f>
-        <v>1.7201470615817041</v>
+        <v>1.7200144587778565</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L62:'1600_trees'!L65)</f>
-        <v>0.93646829151639732</v>
+        <v>0.93607080567116818</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L66:'1600_trees'!L69)</f>
-        <v>1.0205044033480619</v>
+        <v>1.0352927504801275</v>
       </c>
       <c r="H17">
         <v>1.2</v>
